--- a/raw_data/20200818_saline/20200818_Sensor1_Test_41.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_41.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4554397C-53F8-47B9-B83C-0319AC4EE637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>36187.272850</v>
+        <v>36187.272850000001</v>
       </c>
       <c r="B2" s="1">
-        <v>10.052020</v>
+        <v>10.052020000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>905.167000</v>
+        <v>905.16700000000003</v>
       </c>
       <c r="D2" s="1">
-        <v>-203.071000</v>
+        <v>-203.071</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>36197.987428</v>
@@ -496,148 +912,148 @@
         <v>10.054997</v>
       </c>
       <c r="H2" s="1">
-        <v>923.341000</v>
+        <v>923.34100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-171.523000</v>
+        <v>-171.523</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>36208.454005</v>
       </c>
       <c r="L2" s="1">
-        <v>10.057904</v>
+        <v>10.057904000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>946.288000</v>
+        <v>946.28800000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-121.422000</v>
+        <v>-121.422</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>36218.393368</v>
+        <v>36218.393367999997</v>
       </c>
       <c r="Q2" s="1">
         <v>10.060665</v>
       </c>
       <c r="R2" s="1">
-        <v>953.114000</v>
+        <v>953.11400000000003</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.796000</v>
+        <v>-104.79600000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>36228.929850</v>
+        <v>36228.92985</v>
       </c>
       <c r="V2" s="1">
         <v>10.063592</v>
       </c>
       <c r="W2" s="1">
-        <v>959.722000</v>
+        <v>959.72199999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.867400</v>
+        <v>-88.867400000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>36239.032860</v>
+        <v>36239.032859999999</v>
       </c>
       <c r="AA2" s="1">
         <v>10.066398</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.793000</v>
+        <v>966.79300000000001</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.117300</v>
+        <v>-77.1173</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>36249.276238</v>
+        <v>36249.276237999999</v>
       </c>
       <c r="AF2" s="1">
         <v>10.069243</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.548000</v>
+        <v>971.548</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.890600</v>
+        <v>-74.890600000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>36259.382753</v>
+        <v>36259.382752999998</v>
       </c>
       <c r="AK2" s="1">
         <v>10.072051</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.709000</v>
+        <v>978.70899999999995</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.532800</v>
+        <v>-79.532799999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>36269.940564</v>
+        <v>36269.940563999997</v>
       </c>
       <c r="AP2" s="1">
         <v>10.074983</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.696000</v>
+        <v>986.69600000000003</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.031400</v>
+        <v>-91.031400000000005</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>36280.961173</v>
+        <v>36280.961173000003</v>
       </c>
       <c r="AU2" s="1">
-        <v>10.078045</v>
+        <v>10.078044999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.394000</v>
+        <v>996.39400000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.714000</v>
+        <v>-108.714</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>36292.079990</v>
+        <v>36292.079989999998</v>
       </c>
       <c r="AZ2" s="1">
-        <v>10.081133</v>
+        <v>10.081132999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB2" s="1">
-        <v>-124.418000</v>
+        <v>-124.41800000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>36302.985064</v>
@@ -646,482 +1062,482 @@
         <v>10.084163</v>
       </c>
       <c r="BF2" s="1">
-        <v>1042.760000</v>
+        <v>1042.76</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.801000</v>
+        <v>-196.80099999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>36314.246698</v>
+        <v>36314.246698000003</v>
       </c>
       <c r="BJ2" s="1">
         <v>10.087291</v>
       </c>
       <c r="BK2" s="1">
-        <v>1109.020000</v>
+        <v>1109.02</v>
       </c>
       <c r="BL2" s="1">
-        <v>-314.719000</v>
+        <v>-314.71899999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>36325.438923</v>
+        <v>36325.438923000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>10.090400</v>
+        <v>10.090400000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1217.180000</v>
+        <v>1217.18</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-500.966000</v>
+        <v>-500.96600000000001</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>36336.898492</v>
       </c>
       <c r="BT2" s="1">
-        <v>10.093583</v>
+        <v>10.093583000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1339.350000</v>
+        <v>1339.35</v>
       </c>
       <c r="BV2" s="1">
-        <v>-705.449000</v>
+        <v>-705.44899999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>36347.844700</v>
+        <v>36347.844700000001</v>
       </c>
       <c r="BY2" s="1">
         <v>10.096624</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1475.930000</v>
+        <v>1475.93</v>
       </c>
       <c r="CA2" s="1">
-        <v>-924.119000</v>
+        <v>-924.11900000000003</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>36358.726068</v>
+        <v>36358.726068000004</v>
       </c>
       <c r="CD2" s="1">
         <v>10.099646</v>
       </c>
       <c r="CE2" s="1">
-        <v>1836.010000</v>
+        <v>1836.01</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1444.370000</v>
+        <v>-1444.37</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>36187.969729</v>
+        <v>36187.969728999997</v>
       </c>
       <c r="B3" s="1">
-        <v>10.052214</v>
+        <v>10.052213999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>905.332000</v>
+        <v>905.33199999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-202.746000</v>
+        <v>-202.74600000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>36198.408530</v>
+        <v>36198.408530000001</v>
       </c>
       <c r="G3" s="1">
         <v>10.055113</v>
       </c>
       <c r="H3" s="1">
-        <v>923.168000</v>
+        <v>923.16800000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-171.706000</v>
+        <v>-171.70599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>36208.564116</v>
+        <v>36208.564116000001</v>
       </c>
       <c r="L3" s="1">
-        <v>10.057934</v>
+        <v>10.057933999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>946.221000</v>
+        <v>946.221</v>
       </c>
       <c r="N3" s="1">
-        <v>-121.508000</v>
+        <v>-121.508</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>36218.746487</v>
+        <v>36218.746486999997</v>
       </c>
       <c r="Q3" s="1">
         <v>10.060763</v>
       </c>
       <c r="R3" s="1">
-        <v>953.128000</v>
+        <v>953.12800000000004</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.846000</v>
+        <v>-104.846</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>36229.278570</v>
+        <v>36229.278570000002</v>
       </c>
       <c r="V3" s="1">
-        <v>10.063688</v>
+        <v>10.063688000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>959.723000</v>
+        <v>959.72299999999996</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.838300</v>
+        <v>-88.838300000000004</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>36239.413318</v>
+        <v>36239.413317999999</v>
       </c>
       <c r="AA3" s="1">
         <v>10.066504</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.847000</v>
+        <v>966.84699999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.100400</v>
+        <v>-77.100399999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>36249.700814</v>
+        <v>36249.700814000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>10.069361</v>
+        <v>10.069361000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.554000</v>
+        <v>971.55399999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.861800</v>
+        <v>-74.861800000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>36259.799886</v>
+        <v>36259.799886000001</v>
       </c>
       <c r="AK3" s="1">
         <v>10.072167</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.706000</v>
+        <v>978.70600000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.523300</v>
+        <v>-79.523300000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>36270.375587</v>
+        <v>36270.375587000002</v>
       </c>
       <c r="AP3" s="1">
         <v>10.075104</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.696000</v>
+        <v>986.69600000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.035900</v>
+        <v>-91.035899999999998</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>36281.346591</v>
+        <v>36281.346591000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>10.078152</v>
+        <v>10.078151999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.388000</v>
+        <v>996.38800000000003</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.695000</v>
+        <v>-108.69499999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>36292.438101</v>
       </c>
       <c r="AZ3" s="1">
-        <v>10.081233</v>
+        <v>10.081232999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB3" s="1">
-        <v>-124.415000</v>
+        <v>-124.41500000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>36303.349628</v>
+        <v>36303.349628000004</v>
       </c>
       <c r="BE3" s="1">
-        <v>10.084264</v>
+        <v>10.084263999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.804000</v>
+        <v>-196.804</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>36314.768001</v>
+        <v>36314.768000999997</v>
       </c>
       <c r="BJ3" s="1">
         <v>10.087436</v>
       </c>
       <c r="BK3" s="1">
-        <v>1109.070000</v>
+        <v>1109.07</v>
       </c>
       <c r="BL3" s="1">
-        <v>-314.728000</v>
+        <v>-314.72800000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>36325.862505</v>
+        <v>36325.862504999997</v>
       </c>
       <c r="BO3" s="1">
         <v>10.090517</v>
       </c>
       <c r="BP3" s="1">
-        <v>1217.200000</v>
+        <v>1217.2</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-500.982000</v>
+        <v>-500.98200000000003</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>36337.337978</v>
+        <v>36337.337978000003</v>
       </c>
       <c r="BT3" s="1">
         <v>10.093705</v>
       </c>
       <c r="BU3" s="1">
-        <v>1339.310000</v>
+        <v>1339.31</v>
       </c>
       <c r="BV3" s="1">
-        <v>-705.447000</v>
+        <v>-705.447</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>36348.295070</v>
+        <v>36348.29507</v>
       </c>
       <c r="BY3" s="1">
-        <v>10.096749</v>
+        <v>10.096749000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1475.940000</v>
+        <v>1475.94</v>
       </c>
       <c r="CA3" s="1">
-        <v>-924.172000</v>
+        <v>-924.17200000000003</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>36359.271565</v>
+        <v>36359.271565000003</v>
       </c>
       <c r="CD3" s="1">
         <v>10.099798</v>
       </c>
       <c r="CE3" s="1">
-        <v>1836.160000</v>
+        <v>1836.16</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1443.310000</v>
+        <v>-1443.31</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>36188.334783</v>
+        <v>36188.334782999998</v>
       </c>
       <c r="B4" s="1">
         <v>10.052315</v>
       </c>
       <c r="C4" s="1">
-        <v>905.272000</v>
+        <v>905.27200000000005</v>
       </c>
       <c r="D4" s="1">
-        <v>-203.031000</v>
+        <v>-203.03100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>36198.751265</v>
+        <v>36198.751264999999</v>
       </c>
       <c r="G4" s="1">
         <v>10.055209</v>
       </c>
       <c r="H4" s="1">
-        <v>922.770000</v>
+        <v>922.77</v>
       </c>
       <c r="I4" s="1">
-        <v>-171.197000</v>
+        <v>-171.197</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>36208.898455</v>
+        <v>36208.898455000002</v>
       </c>
       <c r="L4" s="1">
-        <v>10.058027</v>
+        <v>10.058026999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>946.274000</v>
+        <v>946.274</v>
       </c>
       <c r="N4" s="1">
-        <v>-121.549000</v>
+        <v>-121.54900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>36219.095672</v>
+        <v>36219.095672000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>10.060860</v>
+        <v>10.06086</v>
       </c>
       <c r="R4" s="1">
-        <v>953.078000</v>
+        <v>953.07799999999997</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.864000</v>
+        <v>-104.864</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>36229.702152</v>
+        <v>36229.702151999998</v>
       </c>
       <c r="V4" s="1">
         <v>10.063806</v>
       </c>
       <c r="W4" s="1">
-        <v>959.668000</v>
+        <v>959.66800000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.856800</v>
+        <v>-88.856800000000007</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>36239.835892</v>
+        <v>36239.835892000003</v>
       </c>
       <c r="AA4" s="1">
         <v>10.066621</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.921000</v>
+        <v>966.92100000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.221900</v>
+        <v>-77.221900000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>36250.003889</v>
       </c>
       <c r="AF4" s="1">
-        <v>10.069446</v>
+        <v>10.069445999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.556000</v>
+        <v>971.55600000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.869700</v>
+        <v>-74.869699999999995</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>36260.145600</v>
+        <v>36260.145600000003</v>
       </c>
       <c r="AK4" s="1">
         <v>10.072263</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.703000</v>
+        <v>978.70299999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.530800</v>
+        <v>-79.530799999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>36270.736642</v>
+        <v>36270.736642000003</v>
       </c>
       <c r="AP4" s="1">
         <v>10.075205</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.706000</v>
+        <v>986.70600000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.046600</v>
+        <v>-91.046599999999998</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>36281.709637</v>
@@ -1130,73 +1546,73 @@
         <v>10.078253</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.401000</v>
+        <v>996.40099999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.708000</v>
+        <v>-108.708</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>36292.800181</v>
+        <v>36292.800180999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>10.081333</v>
+        <v>10.081333000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB4" s="1">
-        <v>-124.388000</v>
+        <v>-124.38800000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>36304.071270</v>
+        <v>36304.07127</v>
       </c>
       <c r="BE4" s="1">
-        <v>10.084464</v>
+        <v>10.084464000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1042.790000</v>
+        <v>1042.79</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.772000</v>
+        <v>-196.77199999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>36315.163457</v>
+        <v>36315.163457000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>10.087545</v>
       </c>
       <c r="BK4" s="1">
-        <v>1109.030000</v>
+        <v>1109.03</v>
       </c>
       <c r="BL4" s="1">
-        <v>-314.748000</v>
+        <v>-314.74799999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>36326.271242</v>
+        <v>36326.271242000003</v>
       </c>
       <c r="BO4" s="1">
         <v>10.090631</v>
       </c>
       <c r="BP4" s="1">
-        <v>1217.200000</v>
+        <v>1217.2</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-501.020000</v>
+        <v>-501.02</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>36337.748666</v>
@@ -1205,377 +1621,377 @@
         <v>10.093819</v>
       </c>
       <c r="BU4" s="1">
-        <v>1339.220000</v>
+        <v>1339.22</v>
       </c>
       <c r="BV4" s="1">
-        <v>-705.456000</v>
+        <v>-705.45600000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>36348.719147</v>
+        <v>36348.719147000003</v>
       </c>
       <c r="BY4" s="1">
         <v>10.096866</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1475.910000</v>
+        <v>1475.91</v>
       </c>
       <c r="CA4" s="1">
-        <v>-924.185000</v>
+        <v>-924.18499999999995</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>36360.105308</v>
+        <v>36360.105307999998</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.100029</v>
+        <v>10.100028999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1836.170000</v>
+        <v>1836.17</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1445.130000</v>
+        <v>-1445.13</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>36188.674600</v>
+        <v>36188.674599999998</v>
       </c>
       <c r="B5" s="1">
-        <v>10.052410</v>
+        <v>10.05241</v>
       </c>
       <c r="C5" s="1">
-        <v>905.293000</v>
+        <v>905.29300000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-202.922000</v>
+        <v>-202.922</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>36199.098497</v>
+        <v>36199.098496999999</v>
       </c>
       <c r="G5" s="1">
-        <v>10.055305</v>
+        <v>10.055305000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>923.130000</v>
+        <v>923.13</v>
       </c>
       <c r="I5" s="1">
-        <v>-171.027000</v>
+        <v>-171.02699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>36209.242681</v>
+        <v>36209.242681000003</v>
       </c>
       <c r="L5" s="1">
         <v>10.058123</v>
       </c>
       <c r="M5" s="1">
-        <v>946.383000</v>
+        <v>946.38300000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-121.395000</v>
+        <v>-121.395</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>36219.521258</v>
+        <v>36219.521258000001</v>
       </c>
       <c r="Q5" s="1">
         <v>10.060978</v>
       </c>
       <c r="R5" s="1">
-        <v>953.057000</v>
+        <v>953.05700000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.805000</v>
+        <v>-104.80500000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>36229.983353</v>
+        <v>36229.983353000003</v>
       </c>
       <c r="V5" s="1">
         <v>10.063884</v>
       </c>
       <c r="W5" s="1">
-        <v>959.719000</v>
+        <v>959.71900000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.857500</v>
+        <v>-88.857500000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>36240.131995</v>
+        <v>36240.131995000003</v>
       </c>
       <c r="AA5" s="1">
         <v>10.066703</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.771000</v>
+        <v>966.77099999999996</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.047300</v>
+        <v>-77.047300000000007</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>36250.345647</v>
+        <v>36250.345647000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>10.069540</v>
+        <v>10.06954</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.550000</v>
+        <v>971.55</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.877900</v>
+        <v>-74.877899999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>36260.491777</v>
+        <v>36260.491777000003</v>
       </c>
       <c r="AK5" s="1">
-        <v>10.072359</v>
+        <v>10.072359000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.703000</v>
+        <v>978.70299999999997</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.522500</v>
+        <v>-79.522499999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>36271.096273</v>
+        <v>36271.096273000003</v>
       </c>
       <c r="AP5" s="1">
         <v>10.075305</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.682000</v>
+        <v>986.68200000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.067400</v>
+        <v>-91.067400000000006</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>36282.440739</v>
+        <v>36282.440738999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>10.078456</v>
+        <v>10.078455999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.394000</v>
+        <v>996.39400000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.699000</v>
+        <v>-108.699</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>36293.514916</v>
       </c>
       <c r="AZ5" s="1">
-        <v>10.081532</v>
+        <v>10.081531999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB5" s="1">
-        <v>-124.397000</v>
+        <v>-124.39700000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>36304.461126</v>
+        <v>36304.461126000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.084573</v>
+        <v>10.084573000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.786000</v>
+        <v>-196.786</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>36315.538775</v>
+        <v>36315.538775000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>10.087650</v>
+        <v>10.08765</v>
       </c>
       <c r="BK5" s="1">
-        <v>1109.030000</v>
+        <v>1109.03</v>
       </c>
       <c r="BL5" s="1">
-        <v>-314.719000</v>
+        <v>-314.71899999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>36326.668010</v>
+        <v>36326.668010000001</v>
       </c>
       <c r="BO5" s="1">
         <v>10.090741</v>
       </c>
       <c r="BP5" s="1">
-        <v>1217.190000</v>
+        <v>1217.19</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-501.016000</v>
+        <v>-501.01600000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>36338.476265</v>
+        <v>36338.476264999998</v>
       </c>
       <c r="BT5" s="1">
         <v>10.094021</v>
       </c>
       <c r="BU5" s="1">
-        <v>1339.240000</v>
+        <v>1339.24</v>
       </c>
       <c r="BV5" s="1">
-        <v>-705.356000</v>
+        <v>-705.35599999999999</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>36349.466122</v>
+        <v>36349.466121999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>10.097074</v>
+        <v>10.097073999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1475.880000</v>
+        <v>1475.88</v>
       </c>
       <c r="CA5" s="1">
-        <v>-924.132000</v>
+        <v>-924.13199999999995</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>36360.333469</v>
+        <v>36360.333468999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>10.100093</v>
+        <v>10.100092999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1835.620000</v>
+        <v>1835.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1445.320000</v>
+        <v>-1445.32</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>36189.017310</v>
+        <v>36189.017310000003</v>
       </c>
       <c r="B6" s="1">
         <v>10.052505</v>
       </c>
       <c r="C6" s="1">
-        <v>905.209000</v>
+        <v>905.20899999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-203.023000</v>
+        <v>-203.023</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>36199.531472</v>
+        <v>36199.531472000002</v>
       </c>
       <c r="G6" s="1">
         <v>10.055425</v>
       </c>
       <c r="H6" s="1">
-        <v>923.191000</v>
+        <v>923.19100000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-171.581000</v>
+        <v>-171.58099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>36209.679621</v>
+        <v>36209.679621000003</v>
       </c>
       <c r="L6" s="1">
         <v>10.058244</v>
       </c>
       <c r="M6" s="1">
-        <v>946.256000</v>
+        <v>946.25599999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-121.419000</v>
+        <v>-121.419</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>36219.795031</v>
+        <v>36219.795031000001</v>
       </c>
       <c r="Q6" s="1">
         <v>10.061054</v>
       </c>
       <c r="R6" s="1">
-        <v>953.098000</v>
+        <v>953.09799999999996</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.789000</v>
+        <v>-104.789</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>36230.325591</v>
+        <v>36230.325591000001</v>
       </c>
       <c r="V6" s="1">
         <v>10.063979</v>
       </c>
       <c r="W6" s="1">
-        <v>959.755000</v>
+        <v>959.755</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.852500</v>
+        <v>-88.852500000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>36240.483688</v>
@@ -1584,270 +2000,270 @@
         <v>10.066801</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.770000</v>
+        <v>966.77</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.152100</v>
+        <v>-77.152100000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>36250.689370</v>
+        <v>36250.68937</v>
       </c>
       <c r="AF6" s="1">
-        <v>10.069636</v>
+        <v>10.069635999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.540000</v>
+        <v>971.54</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.868800</v>
+        <v>-74.868799999999993</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>36260.840495</v>
+        <v>36260.840494999997</v>
       </c>
       <c r="AK6" s="1">
-        <v>10.072456</v>
+        <v>10.072456000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.691000</v>
+        <v>978.69100000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.525000</v>
+        <v>-79.525000000000006</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>36271.817095</v>
+        <v>36271.817094999999</v>
       </c>
       <c r="AP6" s="1">
         <v>10.075505</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.707000</v>
+        <v>986.70699999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.070600</v>
+        <v>-91.070599999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>36282.833570</v>
+        <v>36282.833570000003</v>
       </c>
       <c r="AU6" s="1">
-        <v>10.078565</v>
+        <v>10.078564999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.412000</v>
+        <v>996.41200000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.699000</v>
+        <v>-108.699</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>36293.872563</v>
+        <v>36293.872562999997</v>
       </c>
       <c r="AZ6" s="1">
         <v>10.081631</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB6" s="1">
-        <v>-124.411000</v>
+        <v>-124.411</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>36304.822213</v>
+        <v>36304.822212999999</v>
       </c>
       <c r="BE6" s="1">
         <v>10.084673</v>
       </c>
       <c r="BF6" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.783000</v>
+        <v>-196.78299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>36316.225270</v>
+        <v>36316.225270000003</v>
       </c>
       <c r="BJ6" s="1">
-        <v>10.087840</v>
+        <v>10.08784</v>
       </c>
       <c r="BK6" s="1">
-        <v>1109.040000</v>
+        <v>1109.04</v>
       </c>
       <c r="BL6" s="1">
-        <v>-314.715000</v>
+        <v>-314.71499999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>36327.396170</v>
+        <v>36327.39617</v>
       </c>
       <c r="BO6" s="1">
-        <v>10.090943</v>
+        <v>10.090942999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1217.170000</v>
+        <v>1217.17</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-501.009000</v>
+        <v>-501.00900000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>36338.590373</v>
+        <v>36338.590372999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>10.094053</v>
+        <v>10.094053000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1339.210000</v>
+        <v>1339.21</v>
       </c>
       <c r="BV6" s="1">
-        <v>-705.397000</v>
+        <v>-705.39700000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>36349.596586</v>
       </c>
       <c r="BY6" s="1">
-        <v>10.097110</v>
+        <v>10.097110000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1475.890000</v>
+        <v>1475.89</v>
       </c>
       <c r="CA6" s="1">
-        <v>-924.188000</v>
+        <v>-924.18799999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>36360.851291</v>
+        <v>36360.851290999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.100236</v>
+        <v>10.100236000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1836.510000</v>
+        <v>1836.51</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1444.170000</v>
+        <v>-1444.17</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>36189.448798</v>
+        <v>36189.448797999998</v>
       </c>
       <c r="B7" s="1">
-        <v>10.052625</v>
+        <v>10.052625000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>905.324000</v>
+        <v>905.32399999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-203.064000</v>
+        <v>-203.06399999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>36199.792400</v>
+        <v>36199.792399999998</v>
       </c>
       <c r="G7" s="1">
         <v>10.055498</v>
       </c>
       <c r="H7" s="1">
-        <v>923.461000</v>
+        <v>923.46100000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-171.719000</v>
+        <v>-171.71899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>36209.957411</v>
+        <v>36209.957411000003</v>
       </c>
       <c r="L7" s="1">
         <v>10.058322</v>
       </c>
       <c r="M7" s="1">
-        <v>946.151000</v>
+        <v>946.15099999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-121.315000</v>
+        <v>-121.315</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>36220.143222</v>
+        <v>36220.143221999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>10.061151</v>
+        <v>10.061151000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>953.068000</v>
+        <v>953.06799999999998</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.813000</v>
+        <v>-104.813</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>36230.670311</v>
+        <v>36230.670311000002</v>
       </c>
       <c r="V7" s="1">
-        <v>10.064075</v>
+        <v>10.064075000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>959.725000</v>
+        <v>959.72500000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.880000</v>
+        <v>-88.88</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>36240.831882</v>
+        <v>36240.831881999999</v>
       </c>
       <c r="AA7" s="1">
         <v>10.066898</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.795000</v>
+        <v>966.79499999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.138100</v>
+        <v>-77.138099999999994</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>36251.375839</v>
@@ -1856,133 +2272,133 @@
         <v>10.069827</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.563000</v>
+        <v>971.56299999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.879600</v>
+        <v>-74.879599999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>36261.539823</v>
+        <v>36261.539822999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>10.072650</v>
+        <v>10.072649999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.698000</v>
+        <v>978.69799999999998</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.515000</v>
+        <v>-79.515000000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>36272.175040</v>
+        <v>36272.175040000002</v>
       </c>
       <c r="AP7" s="1">
         <v>10.075604</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.664000</v>
+        <v>986.66399999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.059100</v>
+        <v>-91.059100000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>36283.196641</v>
+        <v>36283.196641000002</v>
       </c>
       <c r="AU7" s="1">
         <v>10.078666</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.407000</v>
+        <v>996.40700000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.690000</v>
+        <v>-108.69</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>36294.234115</v>
+        <v>36294.234114999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>10.081732</v>
+        <v>10.081732000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB7" s="1">
-        <v>-124.392000</v>
+        <v>-124.392</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>36305.486853</v>
+        <v>36305.486853000002</v>
       </c>
       <c r="BE7" s="1">
         <v>10.084857</v>
       </c>
       <c r="BF7" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.796000</v>
+        <v>-196.79599999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>36316.663205</v>
+        <v>36316.663204999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.087962</v>
+        <v>10.087961999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1109.030000</v>
+        <v>1109.03</v>
       </c>
       <c r="BL7" s="1">
-        <v>-314.785000</v>
+        <v>-314.78500000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>36327.513193</v>
+        <v>36327.513192999999</v>
       </c>
       <c r="BO7" s="1">
         <v>10.090976</v>
       </c>
       <c r="BP7" s="1">
-        <v>1217.180000</v>
+        <v>1217.18</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-501.053000</v>
+        <v>-501.053</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>36339.019912</v>
+        <v>36339.019912000003</v>
       </c>
       <c r="BT7" s="1">
         <v>10.094172</v>
       </c>
       <c r="BU7" s="1">
-        <v>1339.040000</v>
+        <v>1339.04</v>
       </c>
       <c r="BV7" s="1">
-        <v>-705.367000</v>
+        <v>-705.36699999999996</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>36350.010382</v>
@@ -1991,105 +2407,105 @@
         <v>10.097225</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1475.800000</v>
+        <v>1475.8</v>
       </c>
       <c r="CA7" s="1">
-        <v>-924.287000</v>
+        <v>-924.28700000000003</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>36361.367659</v>
+        <v>36361.367659000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.100380</v>
+        <v>10.100379999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1836.180000</v>
+        <v>1836.18</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1444.680000</v>
+        <v>-1444.68</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>36189.730061</v>
+        <v>36189.730061000002</v>
       </c>
       <c r="B8" s="1">
-        <v>10.052703</v>
+        <v>10.052702999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>905.222000</v>
+        <v>905.22199999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-203.077000</v>
+        <v>-203.077</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>36200.133121</v>
+        <v>36200.133120999999</v>
       </c>
       <c r="G8" s="1">
         <v>10.055593</v>
       </c>
       <c r="H8" s="1">
-        <v>923.155000</v>
+        <v>923.15499999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-171.585000</v>
+        <v>-171.58500000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>36210.303090</v>
+        <v>36210.303090000001</v>
       </c>
       <c r="L8" s="1">
         <v>10.058418</v>
       </c>
       <c r="M8" s="1">
-        <v>946.541000</v>
+        <v>946.54100000000005</v>
       </c>
       <c r="N8" s="1">
-        <v>-121.279000</v>
+        <v>-121.279</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>36220.492930</v>
+        <v>36220.49293</v>
       </c>
       <c r="Q8" s="1">
-        <v>10.061248</v>
+        <v>10.061248000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>953.120000</v>
+        <v>953.12</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.815000</v>
+        <v>-104.815</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>36231.356278</v>
+        <v>36231.356277999999</v>
       </c>
       <c r="V8" s="1">
         <v>10.064266</v>
       </c>
       <c r="W8" s="1">
-        <v>959.708000</v>
+        <v>959.70799999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.800400</v>
+        <v>-88.800399999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>36241.517817</v>
@@ -2098,210 +2514,210 @@
         <v>10.067088</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.873000</v>
+        <v>966.87300000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.171000</v>
+        <v>-77.171000000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>36251.718539</v>
+        <v>36251.718539000001</v>
       </c>
       <c r="AF8" s="1">
         <v>10.069922</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.534000</v>
+        <v>971.53399999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.904800</v>
+        <v>-74.904799999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>36261.884046</v>
+        <v>36261.884045999999</v>
       </c>
       <c r="AK8" s="1">
         <v>10.072746</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.703000</v>
+        <v>978.70299999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.516800</v>
+        <v>-79.516800000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>36272.535664</v>
+        <v>36272.535664000003</v>
       </c>
       <c r="AP8" s="1">
         <v>10.075704</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.685000</v>
+        <v>986.68499999999995</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.059000</v>
+        <v>-91.058999999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>36283.878145</v>
+        <v>36283.878145000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>10.078855</v>
+        <v>10.078855000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.386000</v>
+        <v>996.38599999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.684000</v>
+        <v>-108.684</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>36294.897298</v>
+        <v>36294.897298000004</v>
       </c>
       <c r="AZ8" s="1">
         <v>10.081916</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB8" s="1">
-        <v>-124.414000</v>
+        <v>-124.414</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>36305.938248</v>
+        <v>36305.938247999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>10.084983</v>
+        <v>10.084982999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.784000</v>
+        <v>-196.78399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>36317.039670</v>
+        <v>36317.039669999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>10.088067</v>
+        <v>10.088067000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1109.060000</v>
+        <v>1109.06</v>
       </c>
       <c r="BL8" s="1">
-        <v>-314.727000</v>
+        <v>-314.72699999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>36327.909495</v>
       </c>
       <c r="BO8" s="1">
-        <v>10.091086</v>
+        <v>10.091086000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1217.150000</v>
+        <v>1217.1500000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-501.023000</v>
+        <v>-501.02300000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>36339.429575</v>
+        <v>36339.429575000002</v>
       </c>
       <c r="BT8" s="1">
         <v>10.094286</v>
       </c>
       <c r="BU8" s="1">
-        <v>1339.060000</v>
+        <v>1339.06</v>
       </c>
       <c r="BV8" s="1">
-        <v>-705.485000</v>
+        <v>-705.48500000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>36350.466554</v>
+        <v>36350.466553999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>10.097352</v>
+        <v>10.097352000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1475.930000</v>
+        <v>1475.93</v>
       </c>
       <c r="CA8" s="1">
-        <v>-924.273000</v>
+        <v>-924.27300000000002</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>36361.925820</v>
+        <v>36361.925819999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>10.100535</v>
+        <v>10.100535000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1835.490000</v>
+        <v>1835.49</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1445.050000</v>
+        <v>-1445.05</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>36190.069788</v>
+        <v>36190.069788000001</v>
       </c>
       <c r="B9" s="1">
         <v>10.052797</v>
       </c>
       <c r="C9" s="1">
-        <v>905.372000</v>
+        <v>905.37199999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-203.035000</v>
+        <v>-203.035</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>36200.482303</v>
+        <v>36200.482302999997</v>
       </c>
       <c r="G9" s="1">
-        <v>10.055690</v>
+        <v>10.05569</v>
       </c>
       <c r="H9" s="1">
-        <v>923.179000</v>
+        <v>923.17899999999997</v>
       </c>
       <c r="I9" s="1">
-        <v>-171.555000</v>
+        <v>-171.55500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>36210.645827</v>
@@ -2310,163 +2726,163 @@
         <v>10.058513</v>
       </c>
       <c r="M9" s="1">
-        <v>946.310000</v>
+        <v>946.31</v>
       </c>
       <c r="N9" s="1">
-        <v>-121.410000</v>
+        <v>-121.41</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>36221.188534</v>
+        <v>36221.188534000001</v>
       </c>
       <c r="Q9" s="1">
         <v>10.061441</v>
       </c>
       <c r="R9" s="1">
-        <v>953.101000</v>
+        <v>953.101</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.842000</v>
+        <v>-104.842</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>36231.700007</v>
+        <v>36231.700006999999</v>
       </c>
       <c r="V9" s="1">
         <v>10.064361</v>
       </c>
       <c r="W9" s="1">
-        <v>959.674000</v>
+        <v>959.67399999999998</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.876700</v>
+        <v>-88.8767</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>36241.876922</v>
+        <v>36241.876922000003</v>
       </c>
       <c r="AA9" s="1">
         <v>10.067188</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.786000</v>
+        <v>966.78599999999994</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.172500</v>
+        <v>-77.172499999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>36252.066235</v>
+        <v>36252.066234999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>10.070018</v>
+        <v>10.070017999999999</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.551000</v>
+        <v>971.55100000000004</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.884700</v>
+        <v>-74.884699999999995</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>36262.238686</v>
+        <v>36262.238685999997</v>
       </c>
       <c r="AK9" s="1">
         <v>10.072844</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.706000</v>
+        <v>978.70600000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.529500</v>
+        <v>-79.529499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>36273.195348</v>
+        <v>36273.195348000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>10.075888</v>
+        <v>10.075888000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.674000</v>
+        <v>986.67399999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.057000</v>
+        <v>-91.057000000000002</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>36284.288834</v>
+        <v>36284.288833999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>10.078969</v>
+        <v>10.078969000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.390000</v>
+        <v>996.39</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.712000</v>
+        <v>-108.712</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>36295.312456</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.082031</v>
+        <v>10.082031000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB9" s="1">
-        <v>-124.406000</v>
+        <v>-124.40600000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>36306.300292</v>
       </c>
       <c r="BE9" s="1">
-        <v>10.085083</v>
+        <v>10.085082999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.800000</v>
+        <v>-196.8</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>36317.415142</v>
+        <v>36317.415141999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>10.088171</v>
+        <v>10.088171000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1109.060000</v>
+        <v>1109.06</v>
       </c>
       <c r="BL9" s="1">
-        <v>-314.769000</v>
+        <v>-314.76900000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>36328.329607</v>
@@ -2475,165 +2891,165 @@
         <v>10.091203</v>
       </c>
       <c r="BP9" s="1">
-        <v>1217.150000</v>
+        <v>1217.1500000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-501.021000</v>
+        <v>-501.02100000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>36339.850217</v>
+        <v>36339.850216999999</v>
       </c>
       <c r="BT9" s="1">
         <v>10.094403</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.980000</v>
+        <v>1338.98</v>
       </c>
       <c r="BV9" s="1">
-        <v>-705.460000</v>
+        <v>-705.46</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>36350.913946</v>
+        <v>36350.913946000001</v>
       </c>
       <c r="BY9" s="1">
         <v>10.097476</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1475.930000</v>
+        <v>1475.93</v>
       </c>
       <c r="CA9" s="1">
-        <v>-924.256000</v>
+        <v>-924.25599999999997</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>36362.453865</v>
+        <v>36362.453865000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>10.100682</v>
+        <v>10.100682000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1836.350000</v>
+        <v>1836.35</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1443.950000</v>
+        <v>-1443.95</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>36190.414012</v>
+        <v>36190.414012000001</v>
       </c>
       <c r="B10" s="1">
-        <v>10.052893</v>
+        <v>10.052892999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>905.394000</v>
+        <v>905.39400000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>-203.168000</v>
+        <v>-203.16800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>36201.168800</v>
+        <v>36201.168799999999</v>
       </c>
       <c r="G10" s="1">
-        <v>10.055880</v>
+        <v>10.05588</v>
       </c>
       <c r="H10" s="1">
-        <v>923.122000</v>
+        <v>923.12199999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-171.341000</v>
+        <v>-171.34100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>36211.339246</v>
+        <v>36211.339246000003</v>
       </c>
       <c r="L10" s="1">
         <v>10.058705</v>
       </c>
       <c r="M10" s="1">
-        <v>946.260000</v>
+        <v>946.26</v>
       </c>
       <c r="N10" s="1">
-        <v>-121.427000</v>
+        <v>-121.42700000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>36221.537498</v>
+        <v>36221.537497999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>10.061538</v>
+        <v>10.061538000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>953.072000</v>
+        <v>953.072</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.835000</v>
+        <v>-104.83499999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>36232.040263</v>
+        <v>36232.040263000003</v>
       </c>
       <c r="V10" s="1">
         <v>10.064456</v>
       </c>
       <c r="W10" s="1">
-        <v>959.621000</v>
+        <v>959.62099999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.879600</v>
+        <v>-88.879599999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>36242.227097</v>
+        <v>36242.227097000003</v>
       </c>
       <c r="AA10" s="1">
         <v>10.067285</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.832000</v>
+        <v>966.83199999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.146300</v>
+        <v>-77.146299999999997</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>36252.722939</v>
+        <v>36252.722938999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>10.070201</v>
+        <v>10.070201000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.554000</v>
+        <v>971.55399999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.878500</v>
+        <v>-74.878500000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>36262.897868</v>
@@ -2642,210 +3058,210 @@
         <v>10.073027</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.668000</v>
+        <v>978.66800000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.525800</v>
+        <v>-79.525800000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>36273.645679</v>
+        <v>36273.645679000001</v>
       </c>
       <c r="AP10" s="1">
         <v>10.076013</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.684000</v>
+        <v>986.68399999999997</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.050900</v>
+        <v>-91.050899999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>36284.656399</v>
       </c>
       <c r="AU10" s="1">
-        <v>10.079071</v>
+        <v>10.079071000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.402000</v>
+        <v>996.40200000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.706000</v>
+        <v>-108.706</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>36295.689377</v>
+        <v>36295.689377000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>10.082136</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB10" s="1">
-        <v>-124.396000</v>
+        <v>-124.396</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>36306.661380</v>
+        <v>36306.661379999998</v>
       </c>
       <c r="BE10" s="1">
         <v>10.085184</v>
       </c>
       <c r="BF10" s="1">
-        <v>1042.770000</v>
+        <v>1042.77</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.803000</v>
+        <v>-196.803</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>36317.831781</v>
+        <v>36317.831781000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>10.088287</v>
+        <v>10.088286999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1109.040000</v>
+        <v>1109.04</v>
       </c>
       <c r="BL10" s="1">
-        <v>-314.745000</v>
+        <v>-314.745</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>36328.747275</v>
+        <v>36328.747275000002</v>
       </c>
       <c r="BO10" s="1">
         <v>10.091319</v>
       </c>
       <c r="BP10" s="1">
-        <v>1217.190000</v>
+        <v>1217.19</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-501.030000</v>
+        <v>-501.03</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>36340.265334</v>
+        <v>36340.265334000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>10.094518</v>
+        <v>10.094518000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.890000</v>
+        <v>1338.89</v>
       </c>
       <c r="BV10" s="1">
-        <v>-705.497000</v>
+        <v>-705.49699999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>36351.369769</v>
+        <v>36351.369768999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>10.097603</v>
+        <v>10.097602999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1475.860000</v>
+        <v>1475.86</v>
       </c>
       <c r="CA10" s="1">
-        <v>-924.220000</v>
+        <v>-924.22</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>36362.971723</v>
+        <v>36362.971723000002</v>
       </c>
       <c r="CD10" s="1">
         <v>10.100825</v>
       </c>
       <c r="CE10" s="1">
-        <v>1835.020000</v>
+        <v>1835.02</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1443.350000</v>
+        <v>-1443.35</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>36191.097041</v>
+        <v>36191.097041000001</v>
       </c>
       <c r="B11" s="1">
-        <v>10.053083</v>
+        <v>10.053083000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>905.411000</v>
+        <v>905.41099999999994</v>
       </c>
       <c r="D11" s="1">
-        <v>-203.087000</v>
+        <v>-203.08699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>36201.512991</v>
+        <v>36201.512991000003</v>
       </c>
       <c r="G11" s="1">
-        <v>10.055976</v>
+        <v>10.055975999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>922.734000</v>
+        <v>922.73400000000004</v>
       </c>
       <c r="I11" s="1">
-        <v>-171.312000</v>
+        <v>-171.31200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>36211.684481</v>
+        <v>36211.684480999997</v>
       </c>
       <c r="L11" s="1">
-        <v>10.058801</v>
+        <v>10.058801000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>946.340000</v>
+        <v>946.34</v>
       </c>
       <c r="N11" s="1">
-        <v>-121.528000</v>
+        <v>-121.52800000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>36221.887652</v>
+        <v>36221.887651999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>10.061635</v>
+        <v>10.061635000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>953.065000</v>
+        <v>953.06500000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.817000</v>
+        <v>-104.81699999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>36232.700975</v>
@@ -2854,225 +3270,225 @@
         <v>10.064639</v>
       </c>
       <c r="W11" s="1">
-        <v>959.716000</v>
+        <v>959.71600000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.911400</v>
+        <v>-88.9114</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>36242.881847</v>
+        <v>36242.881846999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>10.067467</v>
+        <v>10.067467000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.987000</v>
+        <v>966.98699999999997</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.176600</v>
+        <v>-77.176599999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>36253.098423</v>
+        <v>36253.098423000003</v>
       </c>
       <c r="AF11" s="1">
-        <v>10.070305</v>
+        <v>10.070304999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.552000</v>
+        <v>971.55200000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.894000</v>
+        <v>-74.894000000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>36263.282301</v>
+        <v>36263.282300999999</v>
       </c>
       <c r="AK11" s="1">
         <v>10.073134</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.702000</v>
+        <v>978.702</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.551900</v>
+        <v>-79.551900000000003</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>36274.005774</v>
+        <v>36274.005773999997</v>
       </c>
       <c r="AP11" s="1">
-        <v>10.076113</v>
+        <v>10.076112999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.675000</v>
+        <v>986.67499999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.056600</v>
+        <v>-91.056600000000003</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>36285.021919</v>
+        <v>36285.021918999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>10.079173</v>
+        <v>10.079173000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.404000</v>
+        <v>996.404</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.699000</v>
+        <v>-108.699</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>36296.051954</v>
+        <v>36296.051954000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>10.082237</v>
+        <v>10.082236999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB11" s="1">
-        <v>-124.423000</v>
+        <v>-124.423</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>36307.080664</v>
+        <v>36307.080664000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>10.085300</v>
+        <v>10.0853</v>
       </c>
       <c r="BF11" s="1">
-        <v>1042.770000</v>
+        <v>1042.77</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.782000</v>
+        <v>-196.78200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>36318.188900</v>
+        <v>36318.188900000001</v>
       </c>
       <c r="BJ11" s="1">
         <v>10.088386</v>
       </c>
       <c r="BK11" s="1">
-        <v>1109.030000</v>
+        <v>1109.03</v>
       </c>
       <c r="BL11" s="1">
-        <v>-314.734000</v>
+        <v>-314.73399999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>36329.148501</v>
+        <v>36329.148501000003</v>
       </c>
       <c r="BO11" s="1">
-        <v>10.091430</v>
+        <v>10.091430000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1217.150000</v>
+        <v>1217.1500000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-501.022000</v>
+        <v>-501.02199999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>36340.678006</v>
+        <v>36340.678006000002</v>
       </c>
       <c r="BT11" s="1">
         <v>10.094633</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.880000</v>
+        <v>1338.88</v>
       </c>
       <c r="BV11" s="1">
-        <v>-705.593000</v>
+        <v>-705.59299999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>36351.818648</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.097727</v>
+        <v>10.097727000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1475.930000</v>
+        <v>1475.93</v>
       </c>
       <c r="CA11" s="1">
-        <v>-924.263000</v>
+        <v>-924.26300000000003</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>36363.488551</v>
+        <v>36363.488551000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>10.100969</v>
+        <v>10.100968999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1834.870000</v>
+        <v>1834.87</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1445.000000</v>
+        <v>-1445</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>36191.439243</v>
+        <v>36191.439243000001</v>
       </c>
       <c r="B12" s="1">
-        <v>10.053178</v>
+        <v>10.053178000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>905.298000</v>
+        <v>905.298</v>
       </c>
       <c r="D12" s="1">
-        <v>-202.862000</v>
+        <v>-202.86199999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>36201.861678</v>
+        <v>36201.861678000001</v>
       </c>
       <c r="G12" s="1">
         <v>10.056073</v>
       </c>
       <c r="H12" s="1">
-        <v>923.149000</v>
+        <v>923.149</v>
       </c>
       <c r="I12" s="1">
-        <v>-171.350000</v>
+        <v>-171.35</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>36212.333712</v>
@@ -3081,73 +3497,73 @@
         <v>10.058982</v>
       </c>
       <c r="M12" s="1">
-        <v>946.517000</v>
+        <v>946.51700000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-121.309000</v>
+        <v>-121.309</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>36222.538930</v>
+        <v>36222.538930000002</v>
       </c>
       <c r="Q12" s="1">
         <v>10.061816</v>
       </c>
       <c r="R12" s="1">
-        <v>953.072000</v>
+        <v>953.072</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.782000</v>
+        <v>-104.782</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>36233.070706</v>
+        <v>36233.070705999999</v>
       </c>
       <c r="V12" s="1">
-        <v>10.064742</v>
+        <v>10.064742000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>959.722000</v>
+        <v>959.72199999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.914500</v>
+        <v>-88.914500000000004</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>36243.270680</v>
+        <v>36243.270680000001</v>
       </c>
       <c r="AA12" s="1">
         <v>10.067575</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.901000</v>
+        <v>966.90099999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.134500</v>
+        <v>-77.134500000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>36253.441673</v>
+        <v>36253.441673000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>10.070400</v>
+        <v>10.070399999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.558000</v>
+        <v>971.55799999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.889300</v>
+        <v>-74.889300000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>36263.630459</v>
@@ -3156,255 +3572,255 @@
         <v>10.073231</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.684000</v>
+        <v>978.68399999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.518000</v>
+        <v>-79.518000000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>36274.366377</v>
+        <v>36274.366376999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>10.076213</v>
+        <v>10.076212999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.703000</v>
+        <v>986.70299999999997</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.046000</v>
+        <v>-91.046000000000006</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>36285.440543</v>
+        <v>36285.440542999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>10.079289</v>
+        <v>10.079288999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.396000</v>
+        <v>996.39599999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.718000</v>
+        <v>-108.718</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>36296.469624</v>
+        <v>36296.469623999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>10.082353</v>
+        <v>10.082352999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB12" s="1">
-        <v>-124.418000</v>
+        <v>-124.41800000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>36307.382562</v>
+        <v>36307.382561999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>10.085384</v>
+        <v>10.085383999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1042.760000</v>
+        <v>1042.76</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.804000</v>
+        <v>-196.804</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>36318.564900</v>
+        <v>36318.564899999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>10.088490</v>
+        <v>10.08849</v>
       </c>
       <c r="BK12" s="1">
-        <v>1109.050000</v>
+        <v>1109.05</v>
       </c>
       <c r="BL12" s="1">
-        <v>-314.780000</v>
+        <v>-314.77999999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>36329.547286</v>
+        <v>36329.547286000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.091541</v>
+        <v>10.091540999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1217.180000</v>
+        <v>1217.18</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-501.037000</v>
+        <v>-501.03699999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>36341.091669</v>
+        <v>36341.091669000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>10.094748</v>
+        <v>10.094747999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1338.810000</v>
+        <v>1338.81</v>
       </c>
       <c r="BV12" s="1">
-        <v>-705.636000</v>
+        <v>-705.63599999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>36352.239286</v>
+        <v>36352.239286000004</v>
       </c>
       <c r="BY12" s="1">
         <v>10.097844</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1475.910000</v>
+        <v>1475.91</v>
       </c>
       <c r="CA12" s="1">
-        <v>-924.261000</v>
+        <v>-924.26099999999997</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>36364.006375</v>
+        <v>36364.006374999997</v>
       </c>
       <c r="CD12" s="1">
         <v>10.101113</v>
       </c>
       <c r="CE12" s="1">
-        <v>1836.230000</v>
+        <v>1836.23</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1444.870000</v>
+        <v>-1444.87</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>36191.781979</v>
+        <v>36191.781978999999</v>
       </c>
       <c r="B13" s="1">
-        <v>10.053273</v>
+        <v>10.053273000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>905.308000</v>
+        <v>905.30799999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-203.023000</v>
+        <v>-203.023</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>36202.516433</v>
+        <v>36202.516432999997</v>
       </c>
       <c r="G13" s="1">
         <v>10.056255</v>
       </c>
       <c r="H13" s="1">
-        <v>923.297000</v>
+        <v>923.29700000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-171.157000</v>
+        <v>-171.15700000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>36212.724559</v>
+        <v>36212.724559000002</v>
       </c>
       <c r="L13" s="1">
-        <v>10.059090</v>
+        <v>10.059089999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>946.322000</v>
+        <v>946.322</v>
       </c>
       <c r="N13" s="1">
-        <v>-121.249000</v>
+        <v>-121.249</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>36222.933746</v>
+        <v>36222.933746000002</v>
       </c>
       <c r="Q13" s="1">
         <v>10.061926</v>
       </c>
       <c r="R13" s="1">
-        <v>953.124000</v>
+        <v>953.12400000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.857000</v>
+        <v>-104.857</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>36233.417652</v>
+        <v>36233.417651999996</v>
       </c>
       <c r="V13" s="1">
         <v>10.064838</v>
       </c>
       <c r="W13" s="1">
-        <v>959.640000</v>
+        <v>959.64</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.803300</v>
+        <v>-88.803299999999993</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>36243.618871</v>
+        <v>36243.618870999999</v>
       </c>
       <c r="AA13" s="1">
         <v>10.067672</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.881000</v>
+        <v>966.88099999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.047900</v>
+        <v>-77.047899999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>36253.786360</v>
+        <v>36253.786359999998</v>
       </c>
       <c r="AF13" s="1">
         <v>10.070496</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.504000</v>
+        <v>971.50400000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.864600</v>
+        <v>-74.864599999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>36264.050572</v>
@@ -3413,88 +3829,88 @@
         <v>10.073347</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.703000</v>
+        <v>978.70299999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.495600</v>
+        <v>-79.495599999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>36274.781517</v>
+        <v>36274.781517000003</v>
       </c>
       <c r="AP13" s="1">
         <v>10.076328</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.679000</v>
+        <v>986.67899999999997</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.067400</v>
+        <v>-91.067400000000006</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>36285.751534</v>
+        <v>36285.751534000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>10.079375</v>
+        <v>10.079375000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.400000</v>
+        <v>996.4</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.735000</v>
+        <v>-108.735</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>36296.850017</v>
+        <v>36296.850016999997</v>
       </c>
       <c r="AZ13" s="1">
-        <v>10.082458</v>
+        <v>10.082458000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.540000</v>
+        <v>1004.54</v>
       </c>
       <c r="BB13" s="1">
-        <v>-124.411000</v>
+        <v>-124.411</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>36307.743686</v>
+        <v>36307.743686000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>10.085484</v>
+        <v>10.085483999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1042.750000</v>
+        <v>1042.75</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.792000</v>
+        <v>-196.792</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>36318.940866</v>
+        <v>36318.940865999997</v>
       </c>
       <c r="BJ13" s="1">
         <v>10.088595</v>
       </c>
       <c r="BK13" s="1">
-        <v>1109.000000</v>
+        <v>1109</v>
       </c>
       <c r="BL13" s="1">
-        <v>-314.741000</v>
+        <v>-314.74099999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>36329.966901</v>
@@ -3503,392 +3919,392 @@
         <v>10.091657</v>
       </c>
       <c r="BP13" s="1">
-        <v>1217.180000</v>
+        <v>1217.18</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-501.013000</v>
+        <v>-501.01299999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>36341.530133</v>
       </c>
       <c r="BT13" s="1">
-        <v>10.094869</v>
+        <v>10.094868999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1338.820000</v>
+        <v>1338.82</v>
       </c>
       <c r="BV13" s="1">
-        <v>-705.703000</v>
+        <v>-705.70299999999997</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>36352.661879</v>
+        <v>36352.661878999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.097962</v>
+        <v>10.097962000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1475.890000</v>
+        <v>1475.89</v>
       </c>
       <c r="CA13" s="1">
-        <v>-924.263000</v>
+        <v>-924.26300000000003</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>36364.526646</v>
+        <v>36364.526645999998</v>
       </c>
       <c r="CD13" s="1">
         <v>10.101257</v>
       </c>
       <c r="CE13" s="1">
-        <v>1835.740000</v>
+        <v>1835.74</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1443.520000</v>
+        <v>-1443.52</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>36192.440170</v>
+        <v>36192.440170000002</v>
       </c>
       <c r="B14" s="1">
-        <v>10.053456</v>
+        <v>10.053456000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>905.110000</v>
+        <v>905.11</v>
       </c>
       <c r="D14" s="1">
-        <v>-203.052000</v>
+        <v>-203.05199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>36202.891901</v>
+        <v>36202.891901000003</v>
       </c>
       <c r="G14" s="1">
         <v>10.056359</v>
       </c>
       <c r="H14" s="1">
-        <v>923.217000</v>
+        <v>923.21699999999998</v>
       </c>
       <c r="I14" s="1">
-        <v>-171.299000</v>
+        <v>-171.29900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>36213.066798</v>
       </c>
       <c r="L14" s="1">
-        <v>10.059185</v>
+        <v>10.059184999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>946.307000</v>
+        <v>946.30700000000002</v>
       </c>
       <c r="N14" s="1">
-        <v>-121.332000</v>
+        <v>-121.33199999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>36223.280448</v>
+        <v>36223.280447999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>10.062022</v>
+        <v>10.062022000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>953.115000</v>
+        <v>953.11500000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.809000</v>
+        <v>-104.809</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>36233.765362</v>
+        <v>36233.765361999998</v>
       </c>
       <c r="V14" s="1">
         <v>10.064935</v>
       </c>
       <c r="W14" s="1">
-        <v>959.620000</v>
+        <v>959.62</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.805700</v>
+        <v>-88.805700000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>36243.968549</v>
+        <v>36243.968548999997</v>
       </c>
       <c r="AA14" s="1">
         <v>10.067769</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.874000</v>
+        <v>966.87400000000002</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.145500</v>
+        <v>-77.145499999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>36254.200552</v>
+        <v>36254.200552000002</v>
       </c>
       <c r="AF14" s="1">
         <v>10.070611</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.561000</v>
+        <v>971.56100000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.873200</v>
+        <v>-74.873199999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>36264.326843</v>
+        <v>36264.326843000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>10.073424</v>
+        <v>10.073423999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.714000</v>
+        <v>978.71400000000006</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.515900</v>
+        <v>-79.515900000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>36275.085566</v>
+        <v>36275.085566000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>10.076413</v>
+        <v>10.076413000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.678000</v>
+        <v>986.678</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.063100</v>
+        <v>-91.063100000000006</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>36286.116095</v>
+        <v>36286.116094999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>10.079477</v>
+        <v>10.079477000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.372000</v>
+        <v>996.37199999999996</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.696000</v>
+        <v>-108.696</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>36297.126815</v>
+        <v>36297.126815000003</v>
       </c>
       <c r="AZ14" s="1">
         <v>10.082535</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB14" s="1">
-        <v>-124.383000</v>
+        <v>-124.383</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>36308.105730</v>
+        <v>36308.105730000003</v>
       </c>
       <c r="BE14" s="1">
         <v>10.085585</v>
       </c>
       <c r="BF14" s="1">
-        <v>1042.760000</v>
+        <v>1042.76</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.809000</v>
+        <v>-196.809</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>36319.688803</v>
+        <v>36319.688802999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>10.088802</v>
+        <v>10.088801999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1109.040000</v>
+        <v>1109.04</v>
       </c>
       <c r="BL14" s="1">
-        <v>-314.752000</v>
+        <v>-314.75200000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>36330.786291</v>
+        <v>36330.786290999997</v>
       </c>
       <c r="BO14" s="1">
         <v>10.091885</v>
       </c>
       <c r="BP14" s="1">
-        <v>1217.240000</v>
+        <v>1217.24</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-501.031000</v>
+        <v>-501.03100000000001</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>36341.958180</v>
+        <v>36341.958180000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>10.094988</v>
+        <v>10.094988000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1338.780000</v>
+        <v>1338.78</v>
       </c>
       <c r="BV14" s="1">
-        <v>-705.785000</v>
+        <v>-705.78499999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>36353.090391</v>
+        <v>36353.090390999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>10.098081</v>
+        <v>10.098081000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1475.910000</v>
+        <v>1475.91</v>
       </c>
       <c r="CA14" s="1">
-        <v>-924.268000</v>
+        <v>-924.26800000000003</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>36365.043974</v>
       </c>
       <c r="CD14" s="1">
-        <v>10.101401</v>
+        <v>10.101400999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1836.040000</v>
+        <v>1836.04</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1443.820000</v>
+        <v>-1443.82</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>36192.805721</v>
+        <v>36192.805720999997</v>
       </c>
       <c r="B15" s="1">
         <v>10.053557</v>
       </c>
       <c r="C15" s="1">
-        <v>905.197000</v>
+        <v>905.197</v>
       </c>
       <c r="D15" s="1">
-        <v>-203.062000</v>
+        <v>-203.06200000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>36203.238103</v>
+        <v>36203.238103000003</v>
       </c>
       <c r="G15" s="1">
         <v>10.056455</v>
       </c>
       <c r="H15" s="1">
-        <v>923.383000</v>
+        <v>923.38300000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-171.573000</v>
+        <v>-171.57300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>36213.413503</v>
+        <v>36213.413503000003</v>
       </c>
       <c r="L15" s="1">
         <v>10.059282</v>
       </c>
       <c r="M15" s="1">
-        <v>946.476000</v>
+        <v>946.476</v>
       </c>
       <c r="N15" s="1">
-        <v>-121.422000</v>
+        <v>-121.422</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>36223.630624</v>
+        <v>36223.630623999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>10.062120</v>
+        <v>10.06212</v>
       </c>
       <c r="R15" s="1">
-        <v>953.092000</v>
+        <v>953.09199999999998</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.830000</v>
+        <v>-104.83</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>36234.189922</v>
+        <v>36234.189921999998</v>
       </c>
       <c r="V15" s="1">
-        <v>10.065053</v>
+        <v>10.065053000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>959.730000</v>
+        <v>959.73</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.872400</v>
+        <v>-88.872399999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>36244.397589</v>
@@ -3897,587 +4313,587 @@
         <v>10.067888</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.717000</v>
+        <v>966.71699999999998</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.008200</v>
+        <v>-77.008200000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>36254.480760</v>
+        <v>36254.480759999999</v>
       </c>
       <c r="AF15" s="1">
         <v>10.070689</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.531000</v>
+        <v>971.53099999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.843600</v>
+        <v>-74.843599999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>36264.676059</v>
+        <v>36264.676058999998</v>
       </c>
       <c r="AK15" s="1">
         <v>10.073521</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.691000</v>
+        <v>978.69100000000003</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.510300</v>
+        <v>-79.510300000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>36275.446188</v>
+        <v>36275.446188000002</v>
       </c>
       <c r="AP15" s="1">
         <v>10.076513</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.701000</v>
+        <v>986.70100000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.047100</v>
+        <v>-91.0471</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>36286.479693</v>
+        <v>36286.479693000001</v>
       </c>
       <c r="AU15" s="1">
         <v>10.079578</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.384000</v>
+        <v>996.38400000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.702000</v>
+        <v>-108.702</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>36297.818702</v>
+        <v>36297.818701999997</v>
       </c>
       <c r="AZ15" s="1">
         <v>10.082727</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB15" s="1">
-        <v>-124.392000</v>
+        <v>-124.392</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>36308.828928</v>
+        <v>36308.828928000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>10.085786</v>
+        <v>10.085786000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.794000</v>
+        <v>-196.79400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>36320.066785</v>
+        <v>36320.066785000003</v>
       </c>
       <c r="BJ15" s="1">
-        <v>10.088907</v>
+        <v>10.088907000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1109.070000</v>
+        <v>1109.07</v>
       </c>
       <c r="BL15" s="1">
-        <v>-314.736000</v>
+        <v>-314.73599999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>36331.203458</v>
+        <v>36331.203458000004</v>
       </c>
       <c r="BO15" s="1">
         <v>10.092001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1217.170000</v>
+        <v>1217.17</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-501.054000</v>
+        <v>-501.05399999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>36342.367422</v>
+        <v>36342.367422000003</v>
       </c>
       <c r="BT15" s="1">
-        <v>10.095102</v>
+        <v>10.095102000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1338.840000</v>
+        <v>1338.84</v>
       </c>
       <c r="BV15" s="1">
-        <v>-705.840000</v>
+        <v>-705.84</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>36353.817061</v>
+        <v>36353.817061000002</v>
       </c>
       <c r="BY15" s="1">
         <v>10.098283</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1475.840000</v>
+        <v>1475.84</v>
       </c>
       <c r="CA15" s="1">
-        <v>-924.320000</v>
+        <v>-924.32</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>36365.908997</v>
+        <v>36365.908996999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>10.101641</v>
+        <v>10.101641000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1836.480000</v>
+        <v>1836.48</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1444.870000</v>
+        <v>-1444.87</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>36193.147465</v>
+        <v>36193.147465000002</v>
       </c>
       <c r="B16" s="1">
         <v>10.053652</v>
       </c>
       <c r="C16" s="1">
-        <v>905.251000</v>
+        <v>905.25099999999998</v>
       </c>
       <c r="D16" s="1">
-        <v>-202.988000</v>
+        <v>-202.988</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>36203.579355</v>
+        <v>36203.579355000002</v>
       </c>
       <c r="G16" s="1">
-        <v>10.056550</v>
+        <v>10.05655</v>
       </c>
       <c r="H16" s="1">
-        <v>923.487000</v>
+        <v>923.48699999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-171.917000</v>
+        <v>-171.917</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>36213.827167</v>
+        <v>36213.827167000003</v>
       </c>
       <c r="L16" s="1">
         <v>10.059396</v>
       </c>
       <c r="M16" s="1">
-        <v>946.410000</v>
+        <v>946.41</v>
       </c>
       <c r="N16" s="1">
-        <v>-121.329000</v>
+        <v>-121.32899999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>36224.053185</v>
+        <v>36224.053184999997</v>
       </c>
       <c r="Q16" s="1">
         <v>10.062237</v>
       </c>
       <c r="R16" s="1">
-        <v>953.082000</v>
+        <v>953.08199999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.848000</v>
+        <v>-104.848</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>36234.470490</v>
+        <v>36234.47049</v>
       </c>
       <c r="V16" s="1">
-        <v>10.065131</v>
+        <v>10.065130999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>959.654000</v>
+        <v>959.654</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.808000</v>
+        <v>-88.808000000000007</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>36244.678325</v>
+        <v>36244.678325000001</v>
       </c>
       <c r="AA16" s="1">
         <v>10.067966</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.775000</v>
+        <v>966.77499999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.046100</v>
+        <v>-77.046099999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>36254.826472</v>
+        <v>36254.826472000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>10.070785</v>
+        <v>10.070785000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.541000</v>
+        <v>971.54100000000005</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.863800</v>
+        <v>-74.863799999999998</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>36265.023227</v>
+        <v>36265.023226999998</v>
       </c>
       <c r="AK16" s="1">
         <v>10.073618</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.699000</v>
+        <v>978.69899999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.540300</v>
+        <v>-79.540300000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>36275.802782</v>
+        <v>36275.802781999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>10.076612</v>
+        <v>10.076612000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.690000</v>
+        <v>986.69</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.033200</v>
+        <v>-91.033199999999994</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>36287.211756</v>
+        <v>36287.211755999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>10.079781</v>
+        <v>10.079781000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.426000</v>
+        <v>996.42600000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.694000</v>
+        <v>-108.694</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>36298.210543</v>
+        <v>36298.210543000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>10.082836</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB16" s="1">
-        <v>-124.426000</v>
+        <v>-124.426</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>36309.188991</v>
+        <v>36309.188991000003</v>
       </c>
       <c r="BE16" s="1">
         <v>10.085886</v>
       </c>
       <c r="BF16" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.787000</v>
+        <v>-196.78700000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>36320.442225</v>
+        <v>36320.442224999999</v>
       </c>
       <c r="BJ16" s="1">
         <v>10.089012</v>
       </c>
       <c r="BK16" s="1">
-        <v>1109.030000</v>
+        <v>1109.03</v>
       </c>
       <c r="BL16" s="1">
-        <v>-314.790000</v>
+        <v>-314.79000000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>36331.597288</v>
+        <v>36331.597287999997</v>
       </c>
       <c r="BO16" s="1">
-        <v>10.092110</v>
+        <v>10.09211</v>
       </c>
       <c r="BP16" s="1">
-        <v>1217.160000</v>
+        <v>1217.1600000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-501.067000</v>
+        <v>-501.06700000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>36343.107906</v>
+        <v>36343.107905999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>10.095308</v>
+        <v>10.095307999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1338.880000</v>
+        <v>1338.88</v>
       </c>
       <c r="BV16" s="1">
-        <v>-705.916000</v>
+        <v>-705.91600000000005</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>36353.951941</v>
+        <v>36353.951940999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>10.098320</v>
+        <v>10.098319999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1475.890000</v>
+        <v>1475.89</v>
       </c>
       <c r="CA16" s="1">
-        <v>-924.155000</v>
+        <v>-924.15499999999997</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>36366.128725</v>
+        <v>36366.128725000002</v>
       </c>
       <c r="CD16" s="1">
         <v>10.101702</v>
       </c>
       <c r="CE16" s="1">
-        <v>1836.310000</v>
+        <v>1836.31</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1443.650000</v>
+        <v>-1443.65</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>36193.490852</v>
+        <v>36193.490852000003</v>
       </c>
       <c r="B17" s="1">
         <v>10.053747</v>
       </c>
       <c r="C17" s="1">
-        <v>905.169000</v>
+        <v>905.16899999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-202.987000</v>
+        <v>-202.98699999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>36204.001420</v>
+        <v>36204.001420000001</v>
       </c>
       <c r="G17" s="1">
-        <v>10.056667</v>
+        <v>10.056666999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>922.973000</v>
+        <v>922.97299999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-171.629000</v>
+        <v>-171.62899999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>36214.106413</v>
+        <v>36214.106413000001</v>
       </c>
       <c r="L17" s="1">
         <v>10.059474</v>
       </c>
       <c r="M17" s="1">
-        <v>946.452000</v>
+        <v>946.452</v>
       </c>
       <c r="N17" s="1">
-        <v>-121.518000</v>
+        <v>-121.518</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>36224.331936</v>
+        <v>36224.331936000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>10.062314</v>
+        <v>10.062314000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>953.037000</v>
+        <v>953.03700000000003</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.834000</v>
+        <v>-104.834</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>36234.813395</v>
+        <v>36234.813394999997</v>
       </c>
       <c r="V17" s="1">
-        <v>10.065226</v>
+        <v>10.065225999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>959.744000</v>
+        <v>959.74400000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.823300</v>
+        <v>-88.823300000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>36245.023572</v>
+        <v>36245.023571999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>10.068062</v>
+        <v>10.068061999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.853000</v>
+        <v>966.85299999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.148000</v>
+        <v>-77.147999999999996</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>36255.168798</v>
+        <v>36255.168797999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>10.070880</v>
+        <v>10.070880000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.529000</v>
+        <v>971.529</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.938500</v>
+        <v>-74.938500000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>36265.722585</v>
+        <v>36265.722585000003</v>
       </c>
       <c r="AK17" s="1">
         <v>10.073812</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.685000</v>
+        <v>978.68499999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.516300</v>
+        <v>-79.516300000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>36276.533565</v>
+        <v>36276.533564999998</v>
       </c>
       <c r="AP17" s="1">
         <v>10.076815</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.672000</v>
+        <v>986.67200000000003</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.046100</v>
+        <v>-91.046099999999996</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>36287.594668</v>
+        <v>36287.594667999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.079887</v>
+        <v>10.079886999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.389000</v>
+        <v>996.38900000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.693000</v>
+        <v>-108.693</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>36298.586013</v>
@@ -4486,285 +4902,285 @@
         <v>10.082941</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB17" s="1">
-        <v>-124.408000</v>
+        <v>-124.408</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>36309.540159</v>
+        <v>36309.540158999996</v>
       </c>
       <c r="BE17" s="1">
-        <v>10.085983</v>
+        <v>10.085983000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1042.760000</v>
+        <v>1042.76</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.811000</v>
+        <v>-196.81100000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>36321.129411</v>
+        <v>36321.129411000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>10.089203</v>
+        <v>10.089202999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1109.050000</v>
+        <v>1109.05</v>
       </c>
       <c r="BL17" s="1">
-        <v>-314.755000</v>
+        <v>-314.755</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>36332.211795</v>
+        <v>36332.211795000003</v>
       </c>
       <c r="BO17" s="1">
         <v>10.092281</v>
       </c>
       <c r="BP17" s="1">
-        <v>1217.170000</v>
+        <v>1217.17</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-501.030000</v>
+        <v>-501.03</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>36343.226946</v>
+        <v>36343.226946000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>10.095341</v>
+        <v>10.095340999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1338.840000</v>
+        <v>1338.84</v>
       </c>
       <c r="BV17" s="1">
-        <v>-705.974000</v>
+        <v>-705.97400000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>36354.374036</v>
+        <v>36354.374036000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>10.098437</v>
+        <v>10.098437000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1475.800000</v>
+        <v>1475.8</v>
       </c>
       <c r="CA17" s="1">
-        <v>-924.299000</v>
+        <v>-924.29899999999998</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>36366.645061</v>
+        <v>36366.645061000003</v>
       </c>
       <c r="CD17" s="1">
         <v>10.101846</v>
       </c>
       <c r="CE17" s="1">
-        <v>1835.070000</v>
+        <v>1835.07</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1444.170000</v>
+        <v>-1444.17</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>36193.966361</v>
+        <v>36193.966360999999</v>
       </c>
       <c r="B18" s="1">
-        <v>10.053880</v>
+        <v>10.053879999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>904.937000</v>
+        <v>904.93700000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-203.021000</v>
+        <v>-203.02099999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>36204.278223</v>
+        <v>36204.278223000001</v>
       </c>
       <c r="G18" s="1">
         <v>10.056744</v>
       </c>
       <c r="H18" s="1">
-        <v>922.904000</v>
+        <v>922.904</v>
       </c>
       <c r="I18" s="1">
-        <v>-171.266000</v>
+        <v>-171.26599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>36214.450142</v>
+        <v>36214.450142000002</v>
       </c>
       <c r="L18" s="1">
         <v>10.059569</v>
       </c>
       <c r="M18" s="1">
-        <v>946.315000</v>
+        <v>946.31500000000005</v>
       </c>
       <c r="N18" s="1">
-        <v>-121.429000</v>
+        <v>-121.429</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>36224.680127</v>
       </c>
       <c r="Q18" s="1">
-        <v>10.062411</v>
+        <v>10.062411000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>953.059000</v>
+        <v>953.05899999999997</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.773000</v>
+        <v>-104.773</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>36235.158644</v>
+        <v>36235.158644000003</v>
       </c>
       <c r="V18" s="1">
         <v>10.065322</v>
       </c>
       <c r="W18" s="1">
-        <v>959.692000</v>
+        <v>959.69200000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.835000</v>
+        <v>-88.834999999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>36245.372734</v>
+        <v>36245.372733999997</v>
       </c>
       <c r="AA18" s="1">
         <v>10.068159</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.790000</v>
+        <v>966.79</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.216500</v>
+        <v>-77.216499999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>36255.857158</v>
+        <v>36255.857157999999</v>
       </c>
       <c r="AF18" s="1">
         <v>10.071071</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.552000</v>
+        <v>971.55200000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.855500</v>
+        <v>-74.855500000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>36266.070282</v>
+        <v>36266.070282000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>10.073908</v>
+        <v>10.073907999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.686000</v>
+        <v>978.68600000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.542900</v>
+        <v>-79.542900000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>36276.909850</v>
+        <v>36276.909849999996</v>
       </c>
       <c r="AP18" s="1">
         <v>10.076919</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.696000</v>
+        <v>986.69600000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.039900</v>
+        <v>-91.039900000000003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>36287.959723</v>
       </c>
       <c r="AU18" s="1">
-        <v>10.079989</v>
+        <v>10.079988999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.390000</v>
+        <v>996.39</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.684000</v>
+        <v>-108.684</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>36299.272477</v>
+        <v>36299.272476999999</v>
       </c>
       <c r="AZ18" s="1">
         <v>10.083131</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB18" s="1">
-        <v>-124.410000</v>
+        <v>-124.41</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>36310.216735</v>
+        <v>36310.216735000002</v>
       </c>
       <c r="BE18" s="1">
         <v>10.086171</v>
       </c>
       <c r="BF18" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.800000</v>
+        <v>-196.8</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>36321.566691</v>
@@ -4773,300 +5189,300 @@
         <v>10.089324</v>
       </c>
       <c r="BK18" s="1">
-        <v>1109.020000</v>
+        <v>1109.02</v>
       </c>
       <c r="BL18" s="1">
-        <v>-314.731000</v>
+        <v>-314.73099999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>36332.418624</v>
+        <v>36332.418623999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>10.092339</v>
+        <v>10.092339000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1217.190000</v>
+        <v>1217.19</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-501.039000</v>
+        <v>-501.03899999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>36343.639619</v>
+        <v>36343.639619000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>10.095455</v>
+        <v>10.095454999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1338.920000</v>
+        <v>1338.92</v>
       </c>
       <c r="BV18" s="1">
-        <v>-706.081000</v>
+        <v>-706.08100000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>36354.801091</v>
+        <v>36354.801091000001</v>
       </c>
       <c r="BY18" s="1">
         <v>10.098556</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1475.910000</v>
+        <v>1475.91</v>
       </c>
       <c r="CA18" s="1">
-        <v>-924.231000</v>
+        <v>-924.23099999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>36367.162388</v>
+        <v>36367.162387999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>10.101990</v>
+        <v>10.101990000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1835.500000</v>
+        <v>1835.5</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1444.950000</v>
+        <v>-1444.95</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>36194.188073</v>
+        <v>36194.188072999998</v>
       </c>
       <c r="B19" s="1">
         <v>10.053941</v>
       </c>
       <c r="C19" s="1">
-        <v>905.261000</v>
+        <v>905.26099999999997</v>
       </c>
       <c r="D19" s="1">
-        <v>-202.931000</v>
+        <v>-202.93100000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>36204.624426</v>
+        <v>36204.624426000002</v>
       </c>
       <c r="G19" s="1">
-        <v>10.056840</v>
+        <v>10.056839999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>923.012000</v>
+        <v>923.01199999999994</v>
       </c>
       <c r="I19" s="1">
-        <v>-172.047000</v>
+        <v>-172.047</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>36214.795884</v>
+        <v>36214.795883999999</v>
       </c>
       <c r="L19" s="1">
         <v>10.059666</v>
       </c>
       <c r="M19" s="1">
-        <v>946.140000</v>
+        <v>946.14</v>
       </c>
       <c r="N19" s="1">
-        <v>-121.281000</v>
+        <v>-121.28100000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>36225.027328</v>
+        <v>36225.027327999996</v>
       </c>
       <c r="Q19" s="1">
-        <v>10.062508</v>
+        <v>10.062507999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>953.131000</v>
+        <v>953.13099999999997</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.789000</v>
+        <v>-104.789</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>36235.845072</v>
+        <v>36235.845071999996</v>
       </c>
       <c r="V19" s="1">
-        <v>10.065513</v>
+        <v>10.065512999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>959.692000</v>
+        <v>959.69200000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.732500</v>
+        <v>-88.732500000000002</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>36246.069623</v>
+        <v>36246.069623000003</v>
       </c>
       <c r="AA19" s="1">
         <v>10.068353</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.810000</v>
+        <v>966.81</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.045200</v>
+        <v>-77.045199999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>36256.198902</v>
+        <v>36256.198901999996</v>
       </c>
       <c r="AF19" s="1">
         <v>10.071166</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.551000</v>
+        <v>971.55100000000004</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.862900</v>
+        <v>-74.862899999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>36266.421449</v>
+        <v>36266.421449000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>10.074006</v>
+        <v>10.074006000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.689000</v>
+        <v>978.68899999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.521300</v>
+        <v>-79.521299999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>36277.271466</v>
+        <v>36277.271465999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>10.077020</v>
+        <v>10.077019999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.711000</v>
+        <v>986.71100000000001</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.057200</v>
+        <v>-91.057199999999995</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>36288.623867</v>
+        <v>36288.623867000002</v>
       </c>
       <c r="AU19" s="1">
         <v>10.080173</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.390000</v>
+        <v>996.39</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.687000</v>
+        <v>-108.687</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>36299.680684</v>
+        <v>36299.680683999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.083245</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB19" s="1">
-        <v>-124.408000</v>
+        <v>-124.408</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>36310.669550</v>
+        <v>36310.669549999999</v>
       </c>
       <c r="BE19" s="1">
         <v>10.086297</v>
       </c>
       <c r="BF19" s="1">
-        <v>1042.760000</v>
+        <v>1042.76</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.803000</v>
+        <v>-196.803</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>36321.944112</v>
+        <v>36321.944111999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>10.089429</v>
+        <v>10.089429000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1109.050000</v>
+        <v>1109.05</v>
       </c>
       <c r="BL19" s="1">
-        <v>-314.738000</v>
+        <v>-314.738</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>36332.835296</v>
+        <v>36332.835295999997</v>
       </c>
       <c r="BO19" s="1">
         <v>10.092454</v>
       </c>
       <c r="BP19" s="1">
-        <v>1217.180000</v>
+        <v>1217.18</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-501.049000</v>
+        <v>-501.04899999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>36344.075105</v>
+        <v>36344.075105000004</v>
       </c>
       <c r="BT19" s="1">
-        <v>10.095576</v>
+        <v>10.095575999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1338.970000</v>
+        <v>1338.97</v>
       </c>
       <c r="BV19" s="1">
-        <v>-706.079000</v>
+        <v>-706.07899999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>36355.217267</v>
@@ -5075,802 +5491,802 @@
         <v>10.098671</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1476.000000</v>
+        <v>1476</v>
       </c>
       <c r="CA19" s="1">
-        <v>-924.257000</v>
+        <v>-924.25699999999995</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>36367.679218</v>
+        <v>36367.679217999997</v>
       </c>
       <c r="CD19" s="1">
         <v>10.102133</v>
       </c>
       <c r="CE19" s="1">
-        <v>1835.110000</v>
+        <v>1835.11</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1445.110000</v>
+        <v>-1445.11</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>36194.532327</v>
+        <v>36194.532327000001</v>
       </c>
       <c r="B20" s="1">
-        <v>10.054037</v>
+        <v>10.054036999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>905.313000</v>
+        <v>905.31299999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-203.113000</v>
+        <v>-203.113</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>36204.966665</v>
       </c>
       <c r="G20" s="1">
-        <v>10.056935</v>
+        <v>10.056934999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>923.198000</v>
+        <v>923.19799999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-171.686000</v>
+        <v>-171.68600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>36215.488968</v>
+        <v>36215.488967999998</v>
       </c>
       <c r="L20" s="1">
         <v>10.059858</v>
       </c>
       <c r="M20" s="1">
-        <v>946.301000</v>
+        <v>946.30100000000004</v>
       </c>
       <c r="N20" s="1">
-        <v>-121.298000</v>
+        <v>-121.298</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>36225.723246</v>
+        <v>36225.723246000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>10.062701</v>
+        <v>10.062701000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>953.087000</v>
+        <v>953.08699999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.880000</v>
+        <v>-104.88</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>36236.188832</v>
       </c>
       <c r="V20" s="1">
-        <v>10.065608</v>
+        <v>10.065607999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>959.680000</v>
+        <v>959.68</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.843400</v>
+        <v>-88.843400000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>36246.419785</v>
+        <v>36246.419784999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>10.068450</v>
+        <v>10.06845</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.840000</v>
+        <v>966.84</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.180700</v>
+        <v>-77.180700000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>36256.540182</v>
+        <v>36256.540181999997</v>
       </c>
       <c r="AF20" s="1">
         <v>10.071261</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.552000</v>
+        <v>971.55200000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.886300</v>
+        <v>-74.886300000000006</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>36267.070215</v>
       </c>
       <c r="AK20" s="1">
-        <v>10.074186</v>
+        <v>10.074185999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.680000</v>
+        <v>978.68</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.497600</v>
+        <v>-79.497600000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>36277.945498</v>
+        <v>36277.945498000001</v>
       </c>
       <c r="AP20" s="1">
         <v>10.077207</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.674000</v>
+        <v>986.67399999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.060800</v>
+        <v>-91.0608</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>36289.087162</v>
+        <v>36289.087162000003</v>
       </c>
       <c r="AU20" s="1">
         <v>10.080302</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.398000</v>
+        <v>996.39800000000002</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.702000</v>
+        <v>-108.702</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>36300.039787</v>
+        <v>36300.039787000002</v>
       </c>
       <c r="AZ20" s="1">
         <v>10.083344</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB20" s="1">
-        <v>-124.404000</v>
+        <v>-124.404</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>36311.031133</v>
+        <v>36311.031132999997</v>
       </c>
       <c r="BE20" s="1">
-        <v>10.086398</v>
+        <v>10.086398000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.815000</v>
+        <v>-196.815</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>36322.319582</v>
+        <v>36322.319581999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>10.089533</v>
+        <v>10.089532999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1109.050000</v>
+        <v>1109.05</v>
       </c>
       <c r="BL20" s="1">
-        <v>-314.750000</v>
+        <v>-314.75</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>36333.256864</v>
+        <v>36333.256864000003</v>
       </c>
       <c r="BO20" s="1">
         <v>10.092571</v>
       </c>
       <c r="BP20" s="1">
-        <v>1217.170000</v>
+        <v>1217.17</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-501.038000</v>
+        <v>-501.03800000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>36344.502689</v>
+        <v>36344.502689000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>10.095695</v>
+        <v>10.095694999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1339.000000</v>
+        <v>1339</v>
       </c>
       <c r="BV20" s="1">
-        <v>-706.161000</v>
+        <v>-706.16099999999994</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>36355.662643</v>
+        <v>36355.662643000003</v>
       </c>
       <c r="BY20" s="1">
-        <v>10.098795</v>
+        <v>10.098795000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1475.900000</v>
+        <v>1475.9</v>
       </c>
       <c r="CA20" s="1">
-        <v>-924.167000</v>
+        <v>-924.16700000000003</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>36368.231266</v>
+        <v>36368.231266000003</v>
       </c>
       <c r="CD20" s="1">
-        <v>10.102286</v>
+        <v>10.102285999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1834.820000</v>
+        <v>1834.82</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1444.460000</v>
+        <v>-1444.46</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>36195.215287</v>
+        <v>36195.215286999999</v>
       </c>
       <c r="B21" s="1">
         <v>10.054226</v>
       </c>
       <c r="C21" s="1">
-        <v>905.416000</v>
+        <v>905.41600000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-202.949000</v>
+        <v>-202.94900000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>36205.655081</v>
+        <v>36205.655080999997</v>
       </c>
       <c r="G21" s="1">
         <v>10.057126</v>
       </c>
       <c r="H21" s="1">
-        <v>923.438000</v>
+        <v>923.43799999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-171.385000</v>
+        <v>-171.38499999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>36215.834475</v>
+        <v>36215.834475000003</v>
       </c>
       <c r="L21" s="1">
-        <v>10.059954</v>
+        <v>10.059953999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>946.164000</v>
+        <v>946.16399999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-121.378000</v>
+        <v>-121.378</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>36226.074878</v>
+        <v>36226.074877999999</v>
       </c>
       <c r="Q21" s="1">
         <v>10.062799</v>
       </c>
       <c r="R21" s="1">
-        <v>953.088000</v>
+        <v>953.08799999999997</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.853000</v>
+        <v>-104.85299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>36236.530576</v>
+        <v>36236.530575999997</v>
       </c>
       <c r="V21" s="1">
-        <v>10.065703</v>
+        <v>10.065702999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>959.736000</v>
+        <v>959.73599999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.869000</v>
+        <v>-88.869</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>36247.074001</v>
+        <v>36247.074001000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>10.068632</v>
+        <v>10.068631999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.852000</v>
+        <v>966.85199999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.128700</v>
+        <v>-77.128699999999995</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>36257.194372</v>
+        <v>36257.194371999998</v>
       </c>
       <c r="AF21" s="1">
         <v>10.071443</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.539000</v>
+        <v>971.53899999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.892300</v>
+        <v>-74.892300000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>36267.457591</v>
+        <v>36267.457590999999</v>
       </c>
       <c r="AK21" s="1">
         <v>10.074294</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.706000</v>
+        <v>978.70600000000002</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.545900</v>
+        <v>-79.545900000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>36278.350729</v>
+        <v>36278.350728999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>10.077320</v>
+        <v>10.07732</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.686000</v>
+        <v>986.68600000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.043100</v>
+        <v>-91.043099999999995</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>36289.451690</v>
+        <v>36289.451690000002</v>
       </c>
       <c r="AU21" s="1">
         <v>10.080403</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.411000</v>
+        <v>996.41099999999994</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.697000</v>
+        <v>-108.697</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>36300.398928</v>
+        <v>36300.398928000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>10.083444</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB21" s="1">
-        <v>-124.423000</v>
+        <v>-124.423</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>36311.392222</v>
+        <v>36311.392222000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>10.086498</v>
+        <v>10.086498000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1042.790000</v>
+        <v>1042.79</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.805000</v>
+        <v>-196.80500000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>36322.734239</v>
+        <v>36322.734238999998</v>
       </c>
       <c r="BJ21" s="1">
         <v>10.089648</v>
       </c>
       <c r="BK21" s="1">
-        <v>1109.040000</v>
+        <v>1109.04</v>
       </c>
       <c r="BL21" s="1">
-        <v>-314.747000</v>
+        <v>-314.74700000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>36333.657670</v>
+        <v>36333.657670000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>10.092683</v>
+        <v>10.092682999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1217.170000</v>
+        <v>1217.17</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-501.069000</v>
+        <v>-501.06900000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>36344.913344</v>
+        <v>36344.913344000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.095809</v>
+        <v>10.095808999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1339.100000</v>
+        <v>1339.1</v>
       </c>
       <c r="BV21" s="1">
-        <v>-706.114000</v>
+        <v>-706.11400000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>36356.085233</v>
+        <v>36356.085232999998</v>
       </c>
       <c r="BY21" s="1">
         <v>10.098913</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1475.950000</v>
+        <v>1475.95</v>
       </c>
       <c r="CA21" s="1">
-        <v>-924.374000</v>
+        <v>-924.37400000000002</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>36368.763474</v>
+        <v>36368.763473999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>10.102434</v>
+        <v>10.102434000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1835.690000</v>
+        <v>1835.69</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1445.520000</v>
+        <v>-1445.52</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>36195.563512</v>
+        <v>36195.563512000001</v>
       </c>
       <c r="B22" s="1">
         <v>10.054323</v>
       </c>
       <c r="C22" s="1">
-        <v>905.257000</v>
+        <v>905.25699999999995</v>
       </c>
       <c r="D22" s="1">
-        <v>-203.198000</v>
+        <v>-203.19800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>36206.004295</v>
+        <v>36206.004294999999</v>
       </c>
       <c r="G22" s="1">
         <v>10.057223</v>
       </c>
       <c r="H22" s="1">
-        <v>923.473000</v>
+        <v>923.47299999999996</v>
       </c>
       <c r="I22" s="1">
-        <v>-171.535000</v>
+        <v>-171.535</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>36216.180186</v>
+        <v>36216.180185999998</v>
       </c>
       <c r="L22" s="1">
-        <v>10.060050</v>
+        <v>10.06005</v>
       </c>
       <c r="M22" s="1">
-        <v>946.456000</v>
+        <v>946.45600000000002</v>
       </c>
       <c r="N22" s="1">
-        <v>-121.266000</v>
+        <v>-121.26600000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>36226.423069</v>
+        <v>36226.423068999997</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.062895</v>
+        <v>10.062894999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>953.072000</v>
+        <v>953.072</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.850000</v>
+        <v>-104.85</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>36237.181295</v>
+        <v>36237.181295000002</v>
       </c>
       <c r="V22" s="1">
         <v>10.065884</v>
       </c>
       <c r="W22" s="1">
-        <v>959.754000</v>
+        <v>959.75400000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.910100</v>
+        <v>-88.9101</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>36247.462401</v>
+        <v>36247.462400999997</v>
       </c>
       <c r="AA22" s="1">
-        <v>10.068740</v>
+        <v>10.06874</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.794000</v>
+        <v>966.79399999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.146600</v>
+        <v>-77.146600000000007</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>36257.574308</v>
+        <v>36257.574308000003</v>
       </c>
       <c r="AF22" s="1">
         <v>10.071548</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.545000</v>
+        <v>971.54499999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.894800</v>
+        <v>-74.894800000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>36267.815237</v>
+        <v>36267.815237000003</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.074393</v>
+        <v>10.074393000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.687000</v>
+        <v>978.68700000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.494100</v>
+        <v>-79.494100000000003</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>36278.736120</v>
+        <v>36278.736120000001</v>
       </c>
       <c r="AP22" s="1">
         <v>10.077427</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.708000</v>
+        <v>986.70799999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.053200</v>
+        <v>-91.053200000000004</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>36289.815772</v>
+        <v>36289.815772000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>10.080504</v>
+        <v>10.080503999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.401000</v>
+        <v>996.40099999999995</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.699000</v>
+        <v>-108.699</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>36300.815532</v>
+        <v>36300.815532000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.083560</v>
+        <v>10.08356</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB22" s="1">
-        <v>-124.420000</v>
+        <v>-124.42</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>36311.813616</v>
+        <v>36311.813615999999</v>
       </c>
       <c r="BE22" s="1">
         <v>10.086615</v>
       </c>
       <c r="BF22" s="1">
-        <v>1042.760000</v>
+        <v>1042.76</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.806000</v>
+        <v>-196.80600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>36323.097833</v>
       </c>
       <c r="BJ22" s="1">
-        <v>10.089749</v>
+        <v>10.089748999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1109.030000</v>
+        <v>1109.03</v>
       </c>
       <c r="BL22" s="1">
-        <v>-314.753000</v>
+        <v>-314.75299999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>36334.055422</v>
+        <v>36334.055421999998</v>
       </c>
       <c r="BO22" s="1">
         <v>10.092793</v>
       </c>
       <c r="BP22" s="1">
-        <v>1217.190000</v>
+        <v>1217.19</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-501.012000</v>
+        <v>-501.012</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>36345.344863</v>
+        <v>36345.344862999998</v>
       </c>
       <c r="BT22" s="1">
         <v>10.095929</v>
       </c>
       <c r="BU22" s="1">
-        <v>1339.190000</v>
+        <v>1339.19</v>
       </c>
       <c r="BV22" s="1">
-        <v>-706.191000</v>
+        <v>-706.19100000000003</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>36356.508322</v>
+        <v>36356.508322000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>10.099030</v>
+        <v>10.099030000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1475.870000</v>
+        <v>1475.87</v>
       </c>
       <c r="CA22" s="1">
-        <v>-924.279000</v>
+        <v>-924.279</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>36369.282321</v>
+        <v>36369.282320999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>10.102578</v>
+        <v>10.102577999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1836.580000</v>
+        <v>1836.58</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1444.470000</v>
+        <v>-1444.47</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>36195.903734</v>
       </c>
@@ -5878,73 +6294,73 @@
         <v>10.054418</v>
       </c>
       <c r="C23" s="1">
-        <v>905.335000</v>
+        <v>905.33500000000004</v>
       </c>
       <c r="D23" s="1">
-        <v>-203.050000</v>
+        <v>-203.05</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>36206.353449</v>
+        <v>36206.353449000002</v>
       </c>
       <c r="G23" s="1">
-        <v>10.057320</v>
+        <v>10.057320000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>923.303000</v>
+        <v>923.303</v>
       </c>
       <c r="I23" s="1">
-        <v>-171.673000</v>
+        <v>-171.673</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>36216.834944</v>
+        <v>36216.834944000002</v>
       </c>
       <c r="L23" s="1">
-        <v>10.060232</v>
+        <v>10.060231999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>946.293000</v>
+        <v>946.29300000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-121.259000</v>
+        <v>-121.259</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>36227.095644</v>
+        <v>36227.095644000001</v>
       </c>
       <c r="Q23" s="1">
         <v>10.063082</v>
       </c>
       <c r="R23" s="1">
-        <v>953.031000</v>
+        <v>953.03099999999995</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.805000</v>
+        <v>-104.80500000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>36237.562745</v>
+        <v>36237.562745000003</v>
       </c>
       <c r="V23" s="1">
-        <v>10.065990</v>
+        <v>10.065989999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>959.670000</v>
+        <v>959.67</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.771900</v>
+        <v>-88.771900000000002</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>36247.812544</v>
@@ -5953,662 +6369,662 @@
         <v>10.068837</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.804000</v>
+        <v>966.80399999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.145500</v>
+        <v>-77.145499999999998</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>36257.918035</v>
+        <v>36257.918035000002</v>
       </c>
       <c r="AF23" s="1">
-        <v>10.071644</v>
+        <v>10.071643999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.554000</v>
+        <v>971.55399999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.879900</v>
+        <v>-74.879900000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>36268.162933</v>
       </c>
       <c r="AK23" s="1">
-        <v>10.074490</v>
+        <v>10.074490000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.684000</v>
+        <v>978.68399999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.516200</v>
+        <v>-79.516199999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>36279.095260</v>
+        <v>36279.095260000002</v>
       </c>
       <c r="AP23" s="1">
-        <v>10.077526</v>
+        <v>10.077526000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.691000</v>
+        <v>986.69100000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.043400</v>
+        <v>-91.043400000000005</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>36290.230906</v>
+        <v>36290.230905999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>10.080620</v>
+        <v>10.08062</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.379000</v>
+        <v>996.37900000000002</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.722000</v>
+        <v>-108.72199999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>36301.118126</v>
+        <v>36301.118126000001</v>
       </c>
       <c r="AZ23" s="1">
         <v>10.083644</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB23" s="1">
-        <v>-124.393000</v>
+        <v>-124.393</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>36312.111456</v>
+        <v>36312.111455999999</v>
       </c>
       <c r="BE23" s="1">
         <v>10.086698</v>
       </c>
       <c r="BF23" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.804000</v>
+        <v>-196.804</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>36323.471790</v>
+        <v>36323.471790000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>10.089853</v>
       </c>
       <c r="BK23" s="1">
-        <v>1109.040000</v>
+        <v>1109.04</v>
       </c>
       <c r="BL23" s="1">
-        <v>-314.740000</v>
+        <v>-314.74</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>36334.475038</v>
+        <v>36334.475037999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>10.092910</v>
+        <v>10.09291</v>
       </c>
       <c r="BP23" s="1">
-        <v>1217.160000</v>
+        <v>1217.1600000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-501.066000</v>
+        <v>-501.06599999999997</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>36345.771919</v>
+        <v>36345.771918999999</v>
       </c>
       <c r="BT23" s="1">
         <v>10.096048</v>
       </c>
       <c r="BU23" s="1">
-        <v>1339.280000</v>
+        <v>1339.28</v>
       </c>
       <c r="BV23" s="1">
-        <v>-706.087000</v>
+        <v>-706.08699999999999</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>36356.956208</v>
+        <v>36356.956208000003</v>
       </c>
       <c r="BY23" s="1">
         <v>10.099155</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1475.910000</v>
+        <v>1475.91</v>
       </c>
       <c r="CA23" s="1">
-        <v>-924.296000</v>
+        <v>-924.29600000000005</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>36369.799615</v>
+        <v>36369.799615000004</v>
       </c>
       <c r="CD23" s="1">
         <v>10.102722</v>
       </c>
       <c r="CE23" s="1">
-        <v>1835.650000</v>
+        <v>1835.65</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1443.440000</v>
+        <v>-1443.44</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>36196.562916</v>
+        <v>36196.562916000003</v>
       </c>
       <c r="B24" s="1">
         <v>10.054601</v>
       </c>
       <c r="C24" s="1">
-        <v>905.360000</v>
+        <v>905.36</v>
       </c>
       <c r="D24" s="1">
-        <v>-203.112000</v>
+        <v>-203.11199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>36206.999734</v>
+        <v>36206.999733999997</v>
       </c>
       <c r="G24" s="1">
-        <v>10.057500</v>
+        <v>10.057499999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>923.335000</v>
+        <v>923.33500000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-171.332000</v>
+        <v>-171.33199999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>36217.217357</v>
+        <v>36217.217357000001</v>
       </c>
       <c r="L24" s="1">
         <v>10.060338</v>
       </c>
       <c r="M24" s="1">
-        <v>946.452000</v>
+        <v>946.452</v>
       </c>
       <c r="N24" s="1">
-        <v>-121.333000</v>
+        <v>-121.333</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>36227.469659</v>
+        <v>36227.469659000002</v>
       </c>
       <c r="Q24" s="1">
         <v>10.063186</v>
       </c>
       <c r="R24" s="1">
-        <v>953.176000</v>
+        <v>953.17600000000004</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.931000</v>
+        <v>-103.931</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>36237.906446</v>
+        <v>36237.906446000001</v>
       </c>
       <c r="V24" s="1">
-        <v>10.066085</v>
+        <v>10.066084999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>959.674000</v>
+        <v>959.67399999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.811300</v>
+        <v>-88.811300000000003</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>36248.160240</v>
+        <v>36248.160239999997</v>
       </c>
       <c r="AA24" s="1">
-        <v>10.068933</v>
+        <v>10.068932999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.809000</v>
+        <v>966.80899999999997</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.057100</v>
+        <v>-77.057100000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>36258.265732</v>
       </c>
       <c r="AF24" s="1">
-        <v>10.071740</v>
+        <v>10.07174</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.535000</v>
+        <v>971.53499999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.927600</v>
+        <v>-74.927599999999998</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>36268.583509</v>
+        <v>36268.583508999996</v>
       </c>
       <c r="AK24" s="1">
         <v>10.074607</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.694000</v>
+        <v>978.69399999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.486800</v>
+        <v>-79.486800000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>36279.515370</v>
+        <v>36279.515370000001</v>
       </c>
       <c r="AP24" s="1">
         <v>10.077643</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.703000</v>
+        <v>986.70299999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.031000</v>
+        <v>-91.031000000000006</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>36290.545897</v>
+        <v>36290.545897000004</v>
       </c>
       <c r="AU24" s="1">
         <v>10.080707</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.416000</v>
+        <v>996.41600000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.686000</v>
+        <v>-108.68600000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>36301.476234</v>
+        <v>36301.476234000002</v>
       </c>
       <c r="AZ24" s="1">
         <v>10.083743</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.550000</v>
+        <v>1004.55</v>
       </c>
       <c r="BB24" s="1">
-        <v>-124.391000</v>
+        <v>-124.39100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>36312.474523</v>
+        <v>36312.474522999997</v>
       </c>
       <c r="BE24" s="1">
         <v>10.086798</v>
       </c>
       <c r="BF24" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.782000</v>
+        <v>-196.78200000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>36323.850268</v>
+        <v>36323.850268000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>10.089958</v>
+        <v>10.089957999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1109.030000</v>
+        <v>1109.03</v>
       </c>
       <c r="BL24" s="1">
-        <v>-314.774000</v>
+        <v>-314.774</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>36335.289010</v>
+        <v>36335.28901</v>
       </c>
       <c r="BO24" s="1">
-        <v>10.093136</v>
+        <v>10.093135999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1217.180000</v>
+        <v>1217.18</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-501.053000</v>
+        <v>-501.053</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>36346.195006</v>
+        <v>36346.195006000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>10.096165</v>
+        <v>10.096164999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1339.330000</v>
+        <v>1339.33</v>
       </c>
       <c r="BV24" s="1">
-        <v>-706.113000</v>
+        <v>-706.11300000000006</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>36357.383797</v>
+        <v>36357.383797000002</v>
       </c>
       <c r="BY24" s="1">
         <v>10.099273</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1475.920000</v>
+        <v>1475.92</v>
       </c>
       <c r="CA24" s="1">
-        <v>-924.275000</v>
+        <v>-924.27499999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>36370.317935</v>
+        <v>36370.317934999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>10.102866</v>
+        <v>10.102866000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1834.940000</v>
+        <v>1834.94</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1444.770000</v>
+        <v>-1444.77</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>36196.927475</v>
+        <v>36196.927474999997</v>
       </c>
       <c r="B25" s="1">
-        <v>10.054702</v>
+        <v>10.054702000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>905.164000</v>
+        <v>905.16399999999999</v>
       </c>
       <c r="D25" s="1">
-        <v>-202.930000</v>
+        <v>-202.93</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>36207.386615</v>
+        <v>36207.386615000003</v>
       </c>
       <c r="G25" s="1">
-        <v>10.057607</v>
+        <v>10.057607000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>922.886000</v>
+        <v>922.88599999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-171.640000</v>
+        <v>-171.64</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>36217.561080</v>
+        <v>36217.561079999999</v>
       </c>
       <c r="L25" s="1">
-        <v>10.060434</v>
+        <v>10.060434000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>946.486000</v>
+        <v>946.48599999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-121.373000</v>
+        <v>-121.373</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>36227.816828</v>
+        <v>36227.816828000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>10.063282</v>
+        <v>10.063281999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>953.202000</v>
+        <v>953.202</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.928000</v>
+        <v>-103.928</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>36238.253645</v>
+        <v>36238.253644999997</v>
       </c>
       <c r="V25" s="1">
         <v>10.066182</v>
       </c>
       <c r="W25" s="1">
-        <v>959.656000</v>
+        <v>959.65599999999995</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.794400</v>
+        <v>-88.794399999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>36248.575922</v>
+        <v>36248.575922000004</v>
       </c>
       <c r="AA25" s="1">
         <v>10.069049</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.954000</v>
+        <v>966.95399999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.153100</v>
+        <v>-77.153099999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>36258.689848</v>
+        <v>36258.689848000002</v>
       </c>
       <c r="AF25" s="1">
-        <v>10.071858</v>
+        <v>10.071858000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.532000</v>
+        <v>971.53200000000004</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.845200</v>
+        <v>-74.845200000000006</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>36268.862262</v>
+        <v>36268.862262000002</v>
       </c>
       <c r="AK25" s="1">
         <v>10.074684</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.710000</v>
+        <v>978.71</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.544400</v>
+        <v>-79.544399999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>36279.815911</v>
+        <v>36279.815910999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>10.077727</v>
+        <v>10.077726999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.694000</v>
+        <v>986.69399999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.038300</v>
+        <v>-91.038300000000007</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>36290.907449</v>
+        <v>36290.907448999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>10.080808</v>
+        <v>10.080807999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.405000</v>
+        <v>996.40499999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.677000</v>
+        <v>-108.67700000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>36301.839770</v>
+        <v>36301.839769999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>10.083844</v>
+        <v>10.083843999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.570000</v>
+        <v>1004.57</v>
       </c>
       <c r="BB25" s="1">
-        <v>-124.412000</v>
+        <v>-124.41200000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>36312.833136</v>
+        <v>36312.833136000001</v>
       </c>
       <c r="BE25" s="1">
         <v>10.086898</v>
       </c>
       <c r="BF25" s="1">
-        <v>1042.740000</v>
+        <v>1042.74</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.796000</v>
+        <v>-196.79599999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>36324.618074</v>
+        <v>36324.618073999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>10.090172</v>
+        <v>10.090172000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1109.030000</v>
+        <v>1109.03</v>
       </c>
       <c r="BL25" s="1">
-        <v>-314.766000</v>
+        <v>-314.76600000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>36335.709118</v>
+        <v>36335.709117999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>10.093253</v>
+        <v>10.093253000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1217.170000</v>
+        <v>1217.17</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-501.095000</v>
+        <v>-501.09500000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>36346.612674</v>
+        <v>36346.612674000004</v>
       </c>
       <c r="BT25" s="1">
-        <v>10.096281</v>
+        <v>10.096280999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1339.410000</v>
+        <v>1339.41</v>
       </c>
       <c r="BV25" s="1">
-        <v>-706.046000</v>
+        <v>-706.04600000000005</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>36357.809491</v>
@@ -6617,287 +7033,288 @@
         <v>10.099392</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1475.880000</v>
+        <v>1475.88</v>
       </c>
       <c r="CA25" s="1">
-        <v>-924.351000</v>
+        <v>-924.351</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>36371.143774</v>
+        <v>36371.143773999996</v>
       </c>
       <c r="CD25" s="1">
         <v>10.103095</v>
       </c>
       <c r="CE25" s="1">
-        <v>1836.300000</v>
+        <v>1836.3</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1445.040000</v>
+        <v>-1445.04</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>36197.272195</v>
+        <v>36197.272194999998</v>
       </c>
       <c r="B26" s="1">
         <v>10.054798</v>
       </c>
       <c r="C26" s="1">
-        <v>905.291000</v>
+        <v>905.29100000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-202.857000</v>
+        <v>-202.857</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>36207.730839</v>
+        <v>36207.730839000003</v>
       </c>
       <c r="G26" s="1">
         <v>10.057703</v>
       </c>
       <c r="H26" s="1">
-        <v>923.274000</v>
+        <v>923.274</v>
       </c>
       <c r="I26" s="1">
-        <v>-171.556000</v>
+        <v>-171.55600000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>36217.908248</v>
       </c>
       <c r="L26" s="1">
-        <v>10.060530</v>
+        <v>10.06053</v>
       </c>
       <c r="M26" s="1">
-        <v>946.454000</v>
+        <v>946.45399999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-121.371000</v>
+        <v>-121.371</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>36228.397679</v>
+        <v>36228.397679000002</v>
       </c>
       <c r="Q26" s="1">
         <v>10.063444</v>
       </c>
       <c r="R26" s="1">
-        <v>953.164000</v>
+        <v>953.16399999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.947000</v>
+        <v>-103.947</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>36238.663871</v>
+        <v>36238.663870999997</v>
       </c>
       <c r="V26" s="1">
-        <v>10.066296</v>
+        <v>10.066295999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>959.663000</v>
+        <v>959.66300000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.841100</v>
+        <v>-88.841099999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>36248.860096</v>
+        <v>36248.860095999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>10.069128</v>
+        <v>10.069127999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.745000</v>
+        <v>966.745</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.060400</v>
+        <v>-77.060400000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>36258.969059</v>
+        <v>36258.969059000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.071936</v>
+        <v>10.071936000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.553000</v>
+        <v>971.553</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.886800</v>
+        <v>-74.886799999999994</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>36269.209989</v>
+        <v>36269.209989000003</v>
       </c>
       <c r="AK26" s="1">
         <v>10.074781</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.706000</v>
+        <v>978.70600000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.527200</v>
+        <v>-79.527199999999993</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>36280.176502</v>
+        <v>36280.176502000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>10.077827</v>
+        <v>10.077826999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.679000</v>
+        <v>986.67899999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.055900</v>
+        <v>-91.055899999999994</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>36291.272539</v>
+        <v>36291.272538999998</v>
       </c>
       <c r="AU26" s="1">
         <v>10.080909</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.412000</v>
+        <v>996.41200000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.698000</v>
+        <v>-108.69799999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>36302.554504</v>
       </c>
       <c r="AZ26" s="1">
-        <v>10.084043</v>
+        <v>10.084042999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.560000</v>
+        <v>1004.56</v>
       </c>
       <c r="BB26" s="1">
-        <v>-124.403000</v>
+        <v>-124.40300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>36313.560234</v>
+        <v>36313.560233999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>10.087100</v>
+        <v>10.0871</v>
       </c>
       <c r="BF26" s="1">
-        <v>1042.780000</v>
+        <v>1042.78</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.801000</v>
+        <v>-196.80099999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>36324.997483</v>
+        <v>36324.997482999999</v>
       </c>
       <c r="BJ26" s="1">
         <v>10.090277</v>
       </c>
       <c r="BK26" s="1">
-        <v>1109.040000</v>
+        <v>1109.04</v>
       </c>
       <c r="BL26" s="1">
-        <v>-314.752000</v>
+        <v>-314.75200000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>36336.103404</v>
+        <v>36336.103404000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>10.093362</v>
+        <v>10.093362000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1217.130000</v>
+        <v>1217.1300000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-501.056000</v>
+        <v>-501.05599999999998</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>36347.040189</v>
+        <v>36347.040188999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>10.096400</v>
+        <v>10.096399999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>1339.450000</v>
+        <v>1339.45</v>
       </c>
       <c r="BV26" s="1">
-        <v>-705.969000</v>
+        <v>-705.96900000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>36358.536462</v>
+        <v>36358.536461999996</v>
       </c>
       <c r="BY26" s="1">
         <v>10.099593</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1475.970000</v>
+        <v>1475.97</v>
       </c>
       <c r="CA26" s="1">
-        <v>-924.343000</v>
+        <v>-924.34299999999996</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>36371.382846</v>
       </c>
       <c r="CD26" s="1">
-        <v>10.103162</v>
+        <v>10.103161999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1835.460000</v>
+        <v>1835.46</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1443.550000</v>
+        <v>-1443.55</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>